--- a/week-1/Solutions/1-3-B-string-date-functions-solutions.xlsx
+++ b/week-1/Solutions/1-3-B-string-date-functions-solutions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\data-analytics-lectures\week-1\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\data-analytics-lectures\week-1\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727CC52A-927F-4493-BA72-B94A51F4561E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="names-numbers-solution" sheetId="4" r:id="rId4"/>
     <sheet name="date-differences-solution" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6267,7 +6268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6617,18 +6618,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="117.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="117.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6638,14 +6639,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="slide=id.g5d1ca39295_0_74  "/>
+    <hyperlink ref="B1" r:id="rId1" location="slide=id.g5d1ca39295_0_74  " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6654,22 +6655,22 @@
       <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6704,7 +6705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D2" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D3)</f>
         <v>=CONCATENATE(C3," ",B3)</v>
@@ -6721,7 +6722,7 @@
         <v>=YEARFRAC(H3,TODAY())</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7369</v>
       </c>
@@ -6750,7 +6751,7 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I17" ca="1" si="1">YEARFRAC(H3,TODAY())</f>
-        <v>38.950000000000003</v>
+        <v>39.033333333333331</v>
       </c>
       <c r="J3">
         <v>800</v>
@@ -6759,7 +6760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7499</v>
       </c>
@@ -6788,7 +6789,7 @@
       </c>
       <c r="I4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>38.774999999999999</v>
+        <v>38.858333333333334</v>
       </c>
       <c r="J4">
         <v>1600</v>
@@ -6797,7 +6798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7521</v>
       </c>
@@ -6826,7 +6827,7 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>38.769444444444446</v>
+        <v>38.852777777777774</v>
       </c>
       <c r="J5">
         <v>1250</v>
@@ -6835,7 +6836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7566</v>
       </c>
@@ -6864,7 +6865,7 @@
       </c>
       <c r="I6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>38.658333333333331</v>
+        <v>38.741666666666667</v>
       </c>
       <c r="J6">
         <v>2975</v>
@@ -6873,7 +6874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7654</v>
       </c>
@@ -6902,7 +6903,7 @@
       </c>
       <c r="I7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>38.169444444444444</v>
+        <v>38.25277777777778</v>
       </c>
       <c r="J7">
         <v>1250</v>
@@ -6911,7 +6912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7698</v>
       </c>
@@ -6940,7 +6941,7 @@
       </c>
       <c r="I8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>38.577777777777776</v>
+        <v>38.661111111111111</v>
       </c>
       <c r="J8">
         <v>2850</v>
@@ -6949,7 +6950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7782</v>
       </c>
@@ -6978,7 +6979,7 @@
       </c>
       <c r="I9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>38.472222222222221</v>
+        <v>38.555555555555557</v>
       </c>
       <c r="J9">
         <v>2450</v>
@@ -6987,7 +6988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7788</v>
       </c>
@@ -7016,7 +7017,7 @@
       </c>
       <c r="I10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>36.972222222222221</v>
+        <v>37.055555555555557</v>
       </c>
       <c r="J10">
         <v>3000</v>
@@ -7025,7 +7026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7839</v>
       </c>
@@ -7054,7 +7055,7 @@
       </c>
       <c r="I11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>38.033333333333331</v>
+        <v>38.116666666666667</v>
       </c>
       <c r="J11">
         <v>5000</v>
@@ -7063,7 +7064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7844</v>
       </c>
@@ -7092,7 +7093,7 @@
       </c>
       <c r="I12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>38.225000000000001</v>
+        <v>38.30833333333333</v>
       </c>
       <c r="J12">
         <v>1500</v>
@@ -7101,7 +7102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7876</v>
       </c>
@@ -7130,7 +7131,7 @@
       </c>
       <c r="I13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>36.880555555555553</v>
+        <v>36.963888888888889</v>
       </c>
       <c r="J13">
         <v>1100</v>
@@ -7139,7 +7140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7900</v>
       </c>
@@ -7168,7 +7169,7 @@
       </c>
       <c r="I14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>37.988888888888887</v>
+        <v>38.072222222222223</v>
       </c>
       <c r="J14">
         <v>950</v>
@@ -7177,7 +7178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7902</v>
       </c>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="I15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>37.988888888888887</v>
+        <v>38.072222222222223</v>
       </c>
       <c r="J15">
         <v>3000</v>
@@ -7215,7 +7216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7934</v>
       </c>
@@ -7244,7 +7245,7 @@
       </c>
       <c r="I16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>37.85</v>
+        <v>37.93333333333333</v>
       </c>
       <c r="J16">
         <v>1300</v>
@@ -7253,7 +7254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7694</v>
       </c>
@@ -7282,7 +7283,7 @@
       </c>
       <c r="I17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>37.93888888888889</v>
+        <v>38.022222222222226</v>
       </c>
       <c r="J17">
         <v>2900</v>
@@ -7298,27 +7299,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -7344,7 +7345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>7369</v>
       </c>
@@ -7370,7 +7371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>7499</v>
       </c>
@@ -7396,7 +7397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>7521</v>
       </c>
@@ -7422,7 +7423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>7566</v>
       </c>
@@ -7448,7 +7449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>7654</v>
       </c>
@@ -7474,7 +7475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>7698</v>
       </c>
@@ -7500,7 +7501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7782</v>
       </c>
@@ -7526,7 +7527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>7788</v>
       </c>
@@ -7552,7 +7553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7839</v>
       </c>
@@ -7578,7 +7579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>7844</v>
       </c>
@@ -7604,7 +7605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>7876</v>
       </c>
@@ -7630,7 +7631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>7900</v>
       </c>
@@ -7656,7 +7657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>7902</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>7934</v>
       </c>
@@ -7708,7 +7709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>7694</v>
       </c>
@@ -7741,20 +7742,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -7773,7 +7774,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -7792,7 +7793,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -7808,7 +7809,7 @@
         <v>794-435-9980</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -7824,7 +7825,7 @@
         <v>791-938-2170</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -7840,7 +7841,7 @@
         <v>974-832-4837</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -7856,7 +7857,7 @@
         <v>587-865-5107</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -7872,7 +7873,7 @@
         <v>101-293-2766</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -7888,7 +7889,7 @@
         <v>386-998-5961</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>925-671-2558</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -7920,7 +7921,7 @@
         <v>903-570-6866</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -7936,7 +7937,7 @@
         <v>362-145-4337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -7952,7 +7953,7 @@
         <v>599-607-0254</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -7968,7 +7969,7 @@
         <v>518-555-7312</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -7984,7 +7985,7 @@
         <v>443-128-9534</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -8000,7 +8001,7 @@
         <v>585-641-7331</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -8016,7 +8017,7 @@
         <v>760-783-5009</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -8032,7 +8033,7 @@
         <v>607-862-0744</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>431-653-6887</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -8064,7 +8065,7 @@
         <v>457-555-9628</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -8080,7 +8081,7 @@
         <v>715-601-9348</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -8096,7 +8097,7 @@
         <v>699-875-2683</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -8112,7 +8113,7 @@
         <v>578-457-5527</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -8128,7 +8129,7 @@
         <v>352-836-7164</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>797-884-4445</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>712-396-1572</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -8176,7 +8177,7 @@
         <v>437-506-8419</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -8192,7 +8193,7 @@
         <v>493-330-3083</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>125</v>
       </c>
@@ -8208,7 +8209,7 @@
         <v>136-285-9408</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -8224,7 +8225,7 @@
         <v>480-655-0516</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>129</v>
       </c>
@@ -8240,7 +8241,7 @@
         <v>130-429-9274</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>575-186-6285</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>133</v>
       </c>
@@ -8272,7 +8273,7 @@
         <v>658-661-8219</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -8288,7 +8289,7 @@
         <v>248-214-8589</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>137</v>
       </c>
@@ -8304,7 +8305,7 @@
         <v>887-116-4991</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -8320,7 +8321,7 @@
         <v>250-306-3190</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -8336,7 +8337,7 @@
         <v>535-855-8810</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -8352,7 +8353,7 @@
         <v>888-921-0270</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -8368,7 +8369,7 @@
         <v>822-279-6407</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -8384,7 +8385,7 @@
         <v>517-295-8944</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -8400,7 +8401,7 @@
         <v>591-364-2852</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -8416,7 +8417,7 @@
         <v>642-433-7229</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -8432,7 +8433,7 @@
         <v>533-297-2498</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>155</v>
       </c>
@@ -8448,7 +8449,7 @@
         <v>944-624-5419</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -8464,7 +8465,7 @@
         <v>651-161-4262</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>159</v>
       </c>
@@ -8480,7 +8481,7 @@
         <v>973-593-4305</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -8496,7 +8497,7 @@
         <v>275-624-5603</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>163</v>
       </c>
@@ -8512,7 +8513,7 @@
         <v>631-601-4415</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>165</v>
       </c>
@@ -8528,7 +8529,7 @@
         <v>421-843-6034</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -8544,7 +8545,7 @@
         <v>102-236-9112</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>169</v>
       </c>
@@ -8560,7 +8561,7 @@
         <v>925-262-9792</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>171</v>
       </c>
@@ -8576,7 +8577,7 @@
         <v>404-979-9322</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>173</v>
       </c>
@@ -8592,7 +8593,7 @@
         <v>860-263-0152</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -8608,7 +8609,7 @@
         <v>110-823-9935</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>177</v>
       </c>
@@ -8624,7 +8625,7 @@
         <v>275-645-2050</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -8640,7 +8641,7 @@
         <v>235-216-2488</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -8656,7 +8657,7 @@
         <v>165-449-4614</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>183</v>
       </c>
@@ -8672,7 +8673,7 @@
         <v>178-843-1613</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>185</v>
       </c>
@@ -8688,7 +8689,7 @@
         <v>728-841-1135</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>187</v>
       </c>
@@ -8704,7 +8705,7 @@
         <v>700-141-2275</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>189</v>
       </c>
@@ -8720,7 +8721,7 @@
         <v>406-951-3813</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>191</v>
       </c>
@@ -8736,7 +8737,7 @@
         <v>685-358-0919</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>193</v>
       </c>
@@ -8752,7 +8753,7 @@
         <v>741-554-5206</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>195</v>
       </c>
@@ -8768,7 +8769,7 @@
         <v>881-187-4185</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>197</v>
       </c>
@@ -8784,7 +8785,7 @@
         <v>303-816-5328</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>199</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>981-766-3160</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>201</v>
       </c>
@@ -8816,7 +8817,7 @@
         <v>760-438-6989</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -8832,7 +8833,7 @@
         <v>984-194-3505</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>205</v>
       </c>
@@ -8848,7 +8849,7 @@
         <v>753-247-5913</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -8864,7 +8865,7 @@
         <v>323-939-6003</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -8880,7 +8881,7 @@
         <v>604-868-4948</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -8896,7 +8897,7 @@
         <v>806-409-5426</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>213</v>
       </c>
@@ -8912,7 +8913,7 @@
         <v>635-995-5247</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -8928,7 +8929,7 @@
         <v>931-906-1197</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>217</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>459-218-2405</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>219</v>
       </c>
@@ -8960,7 +8961,7 @@
         <v>854-427-9027</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>221</v>
       </c>
@@ -8976,7 +8977,7 @@
         <v>249-273-9209</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>223</v>
       </c>
@@ -8992,7 +8993,7 @@
         <v>566-109-7226</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>225</v>
       </c>
@@ -9008,7 +9009,7 @@
         <v>487-855-1912</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>227</v>
       </c>
@@ -9024,7 +9025,7 @@
         <v>813-353-1097</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>229</v>
       </c>
@@ -9040,7 +9041,7 @@
         <v>924-305-2750</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>231</v>
       </c>
@@ -9056,7 +9057,7 @@
         <v>611-162-0912</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>233</v>
       </c>
@@ -9072,7 +9073,7 @@
         <v>447-849-4478</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>235</v>
       </c>
@@ -9088,7 +9089,7 @@
         <v>731-879-8259</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>237</v>
       </c>
@@ -9104,7 +9105,7 @@
         <v>711-496-9379</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>239</v>
       </c>
@@ -9120,7 +9121,7 @@
         <v>419-401-9148</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>241</v>
       </c>
@@ -9136,7 +9137,7 @@
         <v>109-554-1959</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>243</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>488-923-6602</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>245</v>
       </c>
@@ -9168,7 +9169,7 @@
         <v>689-184-5241</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>247</v>
       </c>
@@ -9184,7 +9185,7 @@
         <v>926-851-5423</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -9200,7 +9201,7 @@
         <v>609-486-1169</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>251</v>
       </c>
@@ -9216,7 +9217,7 @@
         <v>304-298-3722</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>253</v>
       </c>
@@ -9232,7 +9233,7 @@
         <v>670-757-4789</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>255</v>
       </c>
@@ -9248,7 +9249,7 @@
         <v>325-405-4654</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>257</v>
       </c>
@@ -9264,7 +9265,7 @@
         <v>707-520-2364</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>259</v>
       </c>
@@ -9280,7 +9281,7 @@
         <v>374-832-9084</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>261</v>
       </c>
@@ -9296,7 +9297,7 @@
         <v>720-721-1856</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>263</v>
       </c>
@@ -9312,7 +9313,7 @@
         <v>852-262-8587</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>265</v>
       </c>
@@ -9328,7 +9329,7 @@
         <v>984-415-0119</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>267</v>
       </c>
@@ -9344,7 +9345,7 @@
         <v>134-384-3705</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>269</v>
       </c>
@@ -9360,7 +9361,7 @@
         <v>592-847-1949</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>271</v>
       </c>
@@ -9376,7 +9377,7 @@
         <v>632-182-4590</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>273</v>
       </c>
@@ -9392,7 +9393,7 @@
         <v>403-904-4157</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>275</v>
       </c>
@@ -9408,7 +9409,7 @@
         <v>855-154-6391</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>277</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>335-497-1600</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>279</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>429-823-7981</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>281</v>
       </c>
@@ -9456,7 +9457,7 @@
         <v>589-163-1224</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>283</v>
       </c>
@@ -9472,7 +9473,7 @@
         <v>733-984-8226</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>285</v>
       </c>
@@ -9488,7 +9489,7 @@
         <v>226-229-8545</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>287</v>
       </c>
@@ -9504,7 +9505,7 @@
         <v>250-212-3269</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>289</v>
       </c>
@@ -9520,7 +9521,7 @@
         <v>416-562-6229</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>291</v>
       </c>
@@ -9536,7 +9537,7 @@
         <v>123-712-2714</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>293</v>
       </c>
@@ -9552,7 +9553,7 @@
         <v>614-942-9150</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>295</v>
       </c>
@@ -9568,7 +9569,7 @@
         <v>485-576-3262</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>297</v>
       </c>
@@ -9584,7 +9585,7 @@
         <v>790-351-3509</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>299</v>
       </c>
@@ -9600,7 +9601,7 @@
         <v>981-916-2596</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>301</v>
       </c>
@@ -9616,7 +9617,7 @@
         <v>239-708-6137</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>303</v>
       </c>
@@ -9632,7 +9633,7 @@
         <v>107-513-1993</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>305</v>
       </c>
@@ -9648,7 +9649,7 @@
         <v>148-188-9403</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>307</v>
       </c>
@@ -9664,7 +9665,7 @@
         <v>661-377-1454</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>309</v>
       </c>
@@ -9680,7 +9681,7 @@
         <v>493-992-0745</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>311</v>
       </c>
@@ -9696,7 +9697,7 @@
         <v>186-487-6056</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>313</v>
       </c>
@@ -9712,7 +9713,7 @@
         <v>437-325-2167</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>315</v>
       </c>
@@ -9728,7 +9729,7 @@
         <v>576-260-8110</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>317</v>
       </c>
@@ -9744,7 +9745,7 @@
         <v>783-373-9879</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>319</v>
       </c>
@@ -9760,7 +9761,7 @@
         <v>974-174-1478</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>321</v>
       </c>
@@ -9776,7 +9777,7 @@
         <v>721-433-6657</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>323</v>
       </c>
@@ -9792,7 +9793,7 @@
         <v>768-381-3525</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>325</v>
       </c>
@@ -9808,7 +9809,7 @@
         <v>279-644-8074</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>327</v>
       </c>
@@ -9824,7 +9825,7 @@
         <v>392-416-8986</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>329</v>
       </c>
@@ -9840,7 +9841,7 @@
         <v>262-877-7967</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>331</v>
       </c>
@@ -9856,7 +9857,7 @@
         <v>853-758-7814</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>333</v>
       </c>
@@ -9872,7 +9873,7 @@
         <v>649-779-1731</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>335</v>
       </c>
@@ -9888,7 +9889,7 @@
         <v>456-665-9805</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>337</v>
       </c>
@@ -9904,7 +9905,7 @@
         <v>451-798-0457</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>339</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>671-377-1375</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>341</v>
       </c>
@@ -9936,7 +9937,7 @@
         <v>190-815-1852</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>343</v>
       </c>
@@ -9952,7 +9953,7 @@
         <v>412-543-0677</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>345</v>
       </c>
@@ -9968,7 +9969,7 @@
         <v>256-894-4932</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>347</v>
       </c>
@@ -9984,7 +9985,7 @@
         <v>765-533-1942</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>349</v>
       </c>
@@ -10000,7 +10001,7 @@
         <v>888-853-0776</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>351</v>
       </c>
@@ -10016,7 +10017,7 @@
         <v>359-414-9231</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>353</v>
       </c>
@@ -10032,7 +10033,7 @@
         <v>288-302-1607</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>355</v>
       </c>
@@ -10048,7 +10049,7 @@
         <v>875-322-5249</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>357</v>
       </c>
@@ -10064,7 +10065,7 @@
         <v>743-413-1318</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>359</v>
       </c>
@@ -10080,7 +10081,7 @@
         <v>526-712-2062</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>361</v>
       </c>
@@ -10096,7 +10097,7 @@
         <v>154-698-0062</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>363</v>
       </c>
@@ -10112,7 +10113,7 @@
         <v>584-946-9306</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>365</v>
       </c>
@@ -10128,7 +10129,7 @@
         <v>771-721-8784</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>367</v>
       </c>
@@ -10144,7 +10145,7 @@
         <v>253-235-5777</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>369</v>
       </c>
@@ -10160,7 +10161,7 @@
         <v>243-118-5857</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>371</v>
       </c>
@@ -10176,7 +10177,7 @@
         <v>307-742-0104</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>373</v>
       </c>
@@ -10192,7 +10193,7 @@
         <v>753-599-0928</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>375</v>
       </c>
@@ -10208,7 +10209,7 @@
         <v>322-373-3469</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>377</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>812-399-6143</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>379</v>
       </c>
@@ -10240,7 +10241,7 @@
         <v>378-150-7478</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>381</v>
       </c>
@@ -10256,7 +10257,7 @@
         <v>420-465-0768</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>383</v>
       </c>
@@ -10272,7 +10273,7 @@
         <v>690-332-6026</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>385</v>
       </c>
@@ -10288,7 +10289,7 @@
         <v>991-307-1608</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>387</v>
       </c>
@@ -10304,7 +10305,7 @@
         <v>759-185-1912</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>389</v>
       </c>
@@ -10320,7 +10321,7 @@
         <v>536-835-8858</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>391</v>
       </c>
@@ -10336,7 +10337,7 @@
         <v>595-832-7044</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>393</v>
       </c>
@@ -10352,7 +10353,7 @@
         <v>960-275-0671</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>395</v>
       </c>
@@ -10368,7 +10369,7 @@
         <v>473-914-2896</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>397</v>
       </c>
@@ -10384,7 +10385,7 @@
         <v>100-722-0541</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>399</v>
       </c>
@@ -10400,7 +10401,7 @@
         <v>382-160-8324</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>401</v>
       </c>
@@ -10416,7 +10417,7 @@
         <v>442-487-9805</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>403</v>
       </c>
@@ -10432,7 +10433,7 @@
         <v>568-714-9813</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>405</v>
       </c>
@@ -10448,7 +10449,7 @@
         <v>438-248-0780</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>407</v>
       </c>
@@ -10464,7 +10465,7 @@
         <v>528-176-1666</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>409</v>
       </c>
@@ -10480,7 +10481,7 @@
         <v>554-843-6713</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>411</v>
       </c>
@@ -10496,7 +10497,7 @@
         <v>309-914-6582</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>413</v>
       </c>
@@ -10512,7 +10513,7 @@
         <v>313-200-6359</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>415</v>
       </c>
@@ -10528,7 +10529,7 @@
         <v>417-560-9936</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>417</v>
       </c>
@@ -10544,7 +10545,7 @@
         <v>672-888-0795</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>419</v>
       </c>
@@ -10560,7 +10561,7 @@
         <v>219-238-6772</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>421</v>
       </c>
@@ -10576,7 +10577,7 @@
         <v>959-536-0162</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>423</v>
       </c>
@@ -10592,7 +10593,7 @@
         <v>620-855-0626</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>425</v>
       </c>
@@ -10608,7 +10609,7 @@
         <v>160-129-7250</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>427</v>
       </c>
@@ -10624,7 +10625,7 @@
         <v>228-631-1894</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>429</v>
       </c>
@@ -10640,7 +10641,7 @@
         <v>828-569-7934</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>431</v>
       </c>
@@ -10656,7 +10657,7 @@
         <v>508-947-2859</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>433</v>
       </c>
@@ -10672,7 +10673,7 @@
         <v>265-805-2080</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>435</v>
       </c>
@@ -10688,7 +10689,7 @@
         <v>736-351-6319</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>437</v>
       </c>
@@ -10704,7 +10705,7 @@
         <v>388-362-1495</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>439</v>
       </c>
@@ -10720,7 +10721,7 @@
         <v>678-206-8773</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>441</v>
       </c>
@@ -10736,7 +10737,7 @@
         <v>930-539-7629</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>443</v>
       </c>
@@ -10752,7 +10753,7 @@
         <v>808-163-3700</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>445</v>
       </c>
@@ -10768,7 +10769,7 @@
         <v>725-123-9137</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>447</v>
       </c>
@@ -10784,7 +10785,7 @@
         <v>819-319-2544</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>449</v>
       </c>
@@ -10800,7 +10801,7 @@
         <v>492-316-6322</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>451</v>
       </c>
@@ -10816,7 +10817,7 @@
         <v>214-554-9001</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>453</v>
       </c>
@@ -10832,7 +10833,7 @@
         <v>883-875-0743</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>455</v>
       </c>
@@ -10848,7 +10849,7 @@
         <v>939-184-7197</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>457</v>
       </c>
@@ -10864,7 +10865,7 @@
         <v>708-682-0520</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>459</v>
       </c>
@@ -10880,7 +10881,7 @@
         <v>295-818-6311</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>461</v>
       </c>
@@ -10896,7 +10897,7 @@
         <v>959-816-2382</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>463</v>
       </c>
@@ -10912,7 +10913,7 @@
         <v>845-568-3185</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>465</v>
       </c>
@@ -10928,7 +10929,7 @@
         <v>812-571-8149</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>467</v>
       </c>
@@ -10944,7 +10945,7 @@
         <v>386-225-9795</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>469</v>
       </c>
@@ -10960,7 +10961,7 @@
         <v>954-739-3038</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>471</v>
       </c>
@@ -10976,7 +10977,7 @@
         <v>295-646-6428</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>473</v>
       </c>
@@ -10992,7 +10993,7 @@
         <v>201-342-4525</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>475</v>
       </c>
@@ -11008,7 +11009,7 @@
         <v>494-203-1278</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>477</v>
       </c>
@@ -11024,7 +11025,7 @@
         <v>858-738-7080</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>479</v>
       </c>
@@ -11040,7 +11041,7 @@
         <v>999-735-0168</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>481</v>
       </c>
@@ -11056,7 +11057,7 @@
         <v>732-355-4997</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>483</v>
       </c>
@@ -11072,7 +11073,7 @@
         <v>700-201-3030</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>485</v>
       </c>
@@ -11088,7 +11089,7 @@
         <v>876-437-6210</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>487</v>
       </c>
@@ -11104,7 +11105,7 @@
         <v>312-274-5923</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>489</v>
       </c>
@@ -11120,7 +11121,7 @@
         <v>779-946-1095</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>491</v>
       </c>
@@ -11136,7 +11137,7 @@
         <v>968-288-3979</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>493</v>
       </c>
@@ -11152,7 +11153,7 @@
         <v>826-808-3822</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>495</v>
       </c>
@@ -11168,7 +11169,7 @@
         <v>702-239-0626</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>497</v>
       </c>
@@ -11184,7 +11185,7 @@
         <v>973-324-1331</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>499</v>
       </c>
@@ -11200,7 +11201,7 @@
         <v>998-756-4335</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>501</v>
       </c>
@@ -11216,7 +11217,7 @@
         <v>561-849-8199</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>503</v>
       </c>
@@ -11232,7 +11233,7 @@
         <v>997-914-9449</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>505</v>
       </c>
@@ -11248,7 +11249,7 @@
         <v>715-539-6478</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>507</v>
       </c>
@@ -11264,7 +11265,7 @@
         <v>613-982-2075</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>509</v>
       </c>
@@ -11280,7 +11281,7 @@
         <v>175-319-1995</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>511</v>
       </c>
@@ -11296,7 +11297,7 @@
         <v>883-478-9567</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>513</v>
       </c>
@@ -11312,7 +11313,7 @@
         <v>386-788-9403</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>515</v>
       </c>
@@ -11328,7 +11329,7 @@
         <v>267-469-9297</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>517</v>
       </c>
@@ -11344,7 +11345,7 @@
         <v>407-462-9860</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>519</v>
       </c>
@@ -11360,7 +11361,7 @@
         <v>123-246-1925</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>521</v>
       </c>
@@ -11376,7 +11377,7 @@
         <v>721-381-8321</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>523</v>
       </c>
@@ -11392,7 +11393,7 @@
         <v>876-468-3274</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>525</v>
       </c>
@@ -11408,7 +11409,7 @@
         <v>113-116-1093</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>527</v>
       </c>
@@ -11424,7 +11425,7 @@
         <v>289-854-8845</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>529</v>
       </c>
@@ -11440,7 +11441,7 @@
         <v>719-710-4307</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>531</v>
       </c>
@@ -11456,7 +11457,7 @@
         <v>467-856-4416</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>533</v>
       </c>
@@ -11472,7 +11473,7 @@
         <v>155-166-6338</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>535</v>
       </c>
@@ -11488,7 +11489,7 @@
         <v>770-864-0535</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>537</v>
       </c>
@@ -11504,7 +11505,7 @@
         <v>599-309-9558</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>539</v>
       </c>
@@ -11520,7 +11521,7 @@
         <v>667-519-1482</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>541</v>
       </c>
@@ -11536,7 +11537,7 @@
         <v>157-626-1554</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>543</v>
       </c>
@@ -11552,7 +11553,7 @@
         <v>388-602-4893</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>545</v>
       </c>
@@ -11568,7 +11569,7 @@
         <v>680-900-3688</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>547</v>
       </c>
@@ -11584,7 +11585,7 @@
         <v>565-949-6103</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>549</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>448-409-0745</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>551</v>
       </c>
@@ -11616,7 +11617,7 @@
         <v>265-197-2840</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>553</v>
       </c>
@@ -11632,7 +11633,7 @@
         <v>809-468-3259</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>555</v>
       </c>
@@ -11648,7 +11649,7 @@
         <v>603-404-9256</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>557</v>
       </c>
@@ -11664,7 +11665,7 @@
         <v>593-199-1873</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>559</v>
       </c>
@@ -11680,7 +11681,7 @@
         <v>849-783-1257</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>561</v>
       </c>
@@ -11696,7 +11697,7 @@
         <v>492-184-1203</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>563</v>
       </c>
@@ -11712,7 +11713,7 @@
         <v>127-586-8676</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>565</v>
       </c>
@@ -11728,7 +11729,7 @@
         <v>529-388-8490</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>567</v>
       </c>
@@ -11744,7 +11745,7 @@
         <v>288-495-5794</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>569</v>
       </c>
@@ -11760,7 +11761,7 @@
         <v>730-407-3547</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>571</v>
       </c>
@@ -11776,7 +11777,7 @@
         <v>571-999-5181</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>573</v>
       </c>
@@ -11792,7 +11793,7 @@
         <v>150-683-2026</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>575</v>
       </c>
@@ -11808,7 +11809,7 @@
         <v>835-959-4153</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>577</v>
       </c>
@@ -11824,7 +11825,7 @@
         <v>895-230-5511</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>579</v>
       </c>
@@ -11840,7 +11841,7 @@
         <v>202-346-6921</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>581</v>
       </c>
@@ -11856,7 +11857,7 @@
         <v>488-628-7052</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>583</v>
       </c>
@@ -11872,7 +11873,7 @@
         <v>769-325-4397</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>585</v>
       </c>
@@ -11888,7 +11889,7 @@
         <v>721-372-7225</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>587</v>
       </c>
@@ -11904,7 +11905,7 @@
         <v>665-107-5400</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>589</v>
       </c>
@@ -11920,7 +11921,7 @@
         <v>770-401-4181</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>591</v>
       </c>
@@ -11936,7 +11937,7 @@
         <v>107-282-2690</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>593</v>
       </c>
@@ -11952,7 +11953,7 @@
         <v>678-369-0672</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>595</v>
       </c>
@@ -11968,7 +11969,7 @@
         <v>546-872-0040</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>597</v>
       </c>
@@ -11984,7 +11985,7 @@
         <v>267-780-4276</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>599</v>
       </c>
@@ -12000,7 +12001,7 @@
         <v>447-540-3357</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>601</v>
       </c>
@@ -12016,7 +12017,7 @@
         <v>217-676-3820</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>603</v>
       </c>
@@ -12032,7 +12033,7 @@
         <v>210-708-7423</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>605</v>
       </c>
@@ -12048,7 +12049,7 @@
         <v>570-341-2021</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>607</v>
       </c>
@@ -12064,7 +12065,7 @@
         <v>171-911-6080</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>609</v>
       </c>
@@ -12080,7 +12081,7 @@
         <v>398-800-3148</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>611</v>
       </c>
@@ -12096,7 +12097,7 @@
         <v>624-254-6854</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>613</v>
       </c>
@@ -12112,7 +12113,7 @@
         <v>959-161-4081</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>615</v>
       </c>
@@ -12128,7 +12129,7 @@
         <v>742-520-0328</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>617</v>
       </c>
@@ -12144,7 +12145,7 @@
         <v>900-795-2446</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>619</v>
       </c>
@@ -12160,7 +12161,7 @@
         <v>418-291-0569</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>621</v>
       </c>
@@ -12176,7 +12177,7 @@
         <v>390-592-7437</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>623</v>
       </c>
@@ -12192,7 +12193,7 @@
         <v>840-129-9179</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>625</v>
       </c>
@@ -12208,7 +12209,7 @@
         <v>935-552-6750</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>627</v>
       </c>
@@ -12224,7 +12225,7 @@
         <v>811-257-8698</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>629</v>
       </c>
@@ -12240,7 +12241,7 @@
         <v>513-100-5402</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>631</v>
       </c>
@@ -12256,7 +12257,7 @@
         <v>413-623-4460</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>633</v>
       </c>
@@ -12272,7 +12273,7 @@
         <v>273-101-2392</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>635</v>
       </c>
@@ -12288,7 +12289,7 @@
         <v>655-221-3522</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>637</v>
       </c>
@@ -12304,7 +12305,7 @@
         <v>344-609-5688</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>639</v>
       </c>
@@ -12320,7 +12321,7 @@
         <v>238-742-6989</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>641</v>
       </c>
@@ -12336,7 +12337,7 @@
         <v>765-774-6885</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>643</v>
       </c>
@@ -12352,7 +12353,7 @@
         <v>775-795-9434</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>645</v>
       </c>
@@ -12368,7 +12369,7 @@
         <v>719-388-1757</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>647</v>
       </c>
@@ -12384,7 +12385,7 @@
         <v>768-984-8578</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>649</v>
       </c>
@@ -12400,7 +12401,7 @@
         <v>573-234-4831</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>651</v>
       </c>
@@ -12416,7 +12417,7 @@
         <v>456-330-3777</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>653</v>
       </c>
@@ -12432,7 +12433,7 @@
         <v>282-838-2689</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>655</v>
       </c>
@@ -12448,7 +12449,7 @@
         <v>223-391-0327</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>657</v>
       </c>
@@ -12464,7 +12465,7 @@
         <v>283-574-2382</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>659</v>
       </c>
@@ -12480,7 +12481,7 @@
         <v>270-193-7320</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>661</v>
       </c>
@@ -12496,7 +12497,7 @@
         <v>208-461-4104</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>663</v>
       </c>
@@ -12512,7 +12513,7 @@
         <v>526-157-4584</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>665</v>
       </c>
@@ -12528,7 +12529,7 @@
         <v>756-387-4549</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>667</v>
       </c>
@@ -12544,7 +12545,7 @@
         <v>949-523-2163</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>669</v>
       </c>
@@ -12560,7 +12561,7 @@
         <v>147-759-3202</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>671</v>
       </c>
@@ -12576,7 +12577,7 @@
         <v>212-829-7242</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>673</v>
       </c>
@@ -12592,7 +12593,7 @@
         <v>679-380-4067</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>675</v>
       </c>
@@ -12608,7 +12609,7 @@
         <v>565-881-4721</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>677</v>
       </c>
@@ -12624,7 +12625,7 @@
         <v>374-957-6322</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>679</v>
       </c>
@@ -12640,7 +12641,7 @@
         <v>545-437-6958</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>681</v>
       </c>
@@ -12656,7 +12657,7 @@
         <v>663-125-8965</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>683</v>
       </c>
@@ -12672,7 +12673,7 @@
         <v>417-457-5723</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>685</v>
       </c>
@@ -12688,7 +12689,7 @@
         <v>916-370-9564</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>687</v>
       </c>
@@ -12704,7 +12705,7 @@
         <v>536-172-7027</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>689</v>
       </c>
@@ -12720,7 +12721,7 @@
         <v>813-635-1718</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>691</v>
       </c>
@@ -12736,7 +12737,7 @@
         <v>926-897-9760</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>693</v>
       </c>
@@ -12752,7 +12753,7 @@
         <v>341-692-8461</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>695</v>
       </c>
@@ -12768,7 +12769,7 @@
         <v>964-752-4364</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>697</v>
       </c>
@@ -12784,7 +12785,7 @@
         <v>345-484-1096</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>699</v>
       </c>
@@ -12800,7 +12801,7 @@
         <v>102-906-9495</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>701</v>
       </c>
@@ -12816,7 +12817,7 @@
         <v>981-350-2593</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>703</v>
       </c>
@@ -12832,7 +12833,7 @@
         <v>106-647-0680</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>705</v>
       </c>
@@ -12848,7 +12849,7 @@
         <v>530-405-5586</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>707</v>
       </c>
@@ -12864,7 +12865,7 @@
         <v>139-418-4044</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>709</v>
       </c>
@@ -12880,7 +12881,7 @@
         <v>197-156-1972</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>711</v>
       </c>
@@ -12896,7 +12897,7 @@
         <v>601-491-2050</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>713</v>
       </c>
@@ -12912,7 +12913,7 @@
         <v>512-543-1666</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>715</v>
       </c>
@@ -12928,7 +12929,7 @@
         <v>929-989-7043</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>717</v>
       </c>
@@ -12944,7 +12945,7 @@
         <v>336-698-1936</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>719</v>
       </c>
@@ -12960,7 +12961,7 @@
         <v>501-233-1741</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>721</v>
       </c>
@@ -12976,7 +12977,7 @@
         <v>560-247-3574</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>723</v>
       </c>
@@ -12992,7 +12993,7 @@
         <v>584-246-6856</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>725</v>
       </c>
@@ -13008,7 +13009,7 @@
         <v>921-171-5147</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>727</v>
       </c>
@@ -13024,7 +13025,7 @@
         <v>593-924-4550</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>729</v>
       </c>
@@ -13040,7 +13041,7 @@
         <v>122-780-9921</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>731</v>
       </c>
@@ -13056,7 +13057,7 @@
         <v>143-305-2277</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>733</v>
       </c>
@@ -13072,7 +13073,7 @@
         <v>344-477-7977</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>735</v>
       </c>
@@ -13088,7 +13089,7 @@
         <v>618-554-4959</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>737</v>
       </c>
@@ -13104,7 +13105,7 @@
         <v>686-805-8070</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>739</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>582-654-8776</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>741</v>
       </c>
@@ -13136,7 +13137,7 @@
         <v>701-106-8004</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>743</v>
       </c>
@@ -13152,7 +13153,7 @@
         <v>177-671-8762</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>745</v>
       </c>
@@ -13168,7 +13169,7 @@
         <v>301-866-3365</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>747</v>
       </c>
@@ -13184,7 +13185,7 @@
         <v>186-991-9964</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>749</v>
       </c>
@@ -13200,7 +13201,7 @@
         <v>985-282-1594</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>751</v>
       </c>
@@ -13216,7 +13217,7 @@
         <v>646-268-7936</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>753</v>
       </c>
@@ -13232,7 +13233,7 @@
         <v>380-470-9138</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>755</v>
       </c>
@@ -13248,7 +13249,7 @@
         <v>272-624-6543</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>757</v>
       </c>
@@ -13264,7 +13265,7 @@
         <v>518-793-9680</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>759</v>
       </c>
@@ -13280,7 +13281,7 @@
         <v>800-900-9105</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>761</v>
       </c>
@@ -13296,7 +13297,7 @@
         <v>684-820-2424</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>763</v>
       </c>
@@ -13312,7 +13313,7 @@
         <v>719-454-1964</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>765</v>
       </c>
@@ -13328,7 +13329,7 @@
         <v>142-760-4113</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>767</v>
       </c>
@@ -13344,7 +13345,7 @@
         <v>245-454-2740</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>769</v>
       </c>
@@ -13360,7 +13361,7 @@
         <v>285-688-0787</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>771</v>
       </c>
@@ -13376,7 +13377,7 @@
         <v>359-704-6824</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>773</v>
       </c>
@@ -13392,7 +13393,7 @@
         <v>403-865-9560</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>775</v>
       </c>
@@ -13408,7 +13409,7 @@
         <v>546-598-8504</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>777</v>
       </c>
@@ -13424,7 +13425,7 @@
         <v>415-125-1283</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>779</v>
       </c>
@@ -13440,7 +13441,7 @@
         <v>262-792-1503</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>781</v>
       </c>
@@ -13456,7 +13457,7 @@
         <v>188-714-5292</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>783</v>
       </c>
@@ -13472,7 +13473,7 @@
         <v>462-947-3348</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>785</v>
       </c>
@@ -13488,7 +13489,7 @@
         <v>193-699-4126</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>787</v>
       </c>
@@ -13504,7 +13505,7 @@
         <v>464-981-7605</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>789</v>
       </c>
@@ -13520,7 +13521,7 @@
         <v>702-493-9558</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>791</v>
       </c>
@@ -13536,7 +13537,7 @@
         <v>213-133-2085</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>793</v>
       </c>
@@ -13552,7 +13553,7 @@
         <v>791-697-2699</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>795</v>
       </c>
@@ -13568,7 +13569,7 @@
         <v>979-514-8411</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>797</v>
       </c>
@@ -13584,7 +13585,7 @@
         <v>882-571-2002</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>799</v>
       </c>
@@ -13600,7 +13601,7 @@
         <v>507-530-4676</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>801</v>
       </c>
@@ -13616,7 +13617,7 @@
         <v>581-133-4883</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>803</v>
       </c>
@@ -13632,7 +13633,7 @@
         <v>215-372-6406</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>805</v>
       </c>
@@ -13648,7 +13649,7 @@
         <v>349-181-5311</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>807</v>
       </c>
@@ -13664,7 +13665,7 @@
         <v>159-513-5019</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>809</v>
       </c>
@@ -13680,7 +13681,7 @@
         <v>739-261-7471</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>811</v>
       </c>
@@ -13696,7 +13697,7 @@
         <v>443-945-7419</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>813</v>
       </c>
@@ -13712,7 +13713,7 @@
         <v>194-585-9710</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>815</v>
       </c>
@@ -13728,7 +13729,7 @@
         <v>872-400-9343</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>817</v>
       </c>
@@ -13744,7 +13745,7 @@
         <v>679-928-1402</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>819</v>
       </c>
@@ -13760,7 +13761,7 @@
         <v>694-126-8401</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>821</v>
       </c>
@@ -13776,7 +13777,7 @@
         <v>619-251-2616</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>823</v>
       </c>
@@ -13792,7 +13793,7 @@
         <v>672-362-8386</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>825</v>
       </c>
@@ -13808,7 +13809,7 @@
         <v>419-644-0828</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>827</v>
       </c>
@@ -13824,7 +13825,7 @@
         <v>269-552-9323</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>829</v>
       </c>
@@ -13840,7 +13841,7 @@
         <v>611-942-8609</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>831</v>
       </c>
@@ -13856,7 +13857,7 @@
         <v>501-811-6025</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>833</v>
       </c>
@@ -13872,7 +13873,7 @@
         <v>564-899-9354</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>835</v>
       </c>
@@ -13888,7 +13889,7 @@
         <v>259-835-9276</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>837</v>
       </c>
@@ -13904,7 +13905,7 @@
         <v>898-918-7904</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>839</v>
       </c>
@@ -13920,7 +13921,7 @@
         <v>880-374-0572</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>841</v>
       </c>
@@ -13936,7 +13937,7 @@
         <v>505-983-4159</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>843</v>
       </c>
@@ -13952,7 +13953,7 @@
         <v>235-568-6826</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>845</v>
       </c>
@@ -13968,7 +13969,7 @@
         <v>663-890-3830</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>847</v>
       </c>
@@ -13984,7 +13985,7 @@
         <v>519-415-9321</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>849</v>
       </c>
@@ -14000,7 +14001,7 @@
         <v>137-972-3691</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>851</v>
       </c>
@@ -14016,7 +14017,7 @@
         <v>867-370-0863</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>853</v>
       </c>
@@ -14032,7 +14033,7 @@
         <v>914-692-5202</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>855</v>
       </c>
@@ -14048,7 +14049,7 @@
         <v>879-813-9501</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>857</v>
       </c>
@@ -14064,7 +14065,7 @@
         <v>155-941-9912</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>859</v>
       </c>
@@ -14080,7 +14081,7 @@
         <v>654-151-6536</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>861</v>
       </c>
@@ -14096,7 +14097,7 @@
         <v>439-451-4826</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>863</v>
       </c>
@@ -14112,7 +14113,7 @@
         <v>188-206-3510</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>865</v>
       </c>
@@ -14128,7 +14129,7 @@
         <v>560-487-3009</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>867</v>
       </c>
@@ -14144,7 +14145,7 @@
         <v>189-354-1510</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>869</v>
       </c>
@@ -14160,7 +14161,7 @@
         <v>355-680-6798</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>871</v>
       </c>
@@ -14176,7 +14177,7 @@
         <v>408-806-4413</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>873</v>
       </c>
@@ -14192,7 +14193,7 @@
         <v>270-766-3390</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>875</v>
       </c>
@@ -14208,7 +14209,7 @@
         <v>377-608-9301</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>877</v>
       </c>
@@ -14224,7 +14225,7 @@
         <v>692-443-2024</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>879</v>
       </c>
@@ -14240,7 +14241,7 @@
         <v>312-631-7160</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>881</v>
       </c>
@@ -14256,7 +14257,7 @@
         <v>249-228-4951</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>883</v>
       </c>
@@ -14272,7 +14273,7 @@
         <v>189-293-3840</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>885</v>
       </c>
@@ -14288,7 +14289,7 @@
         <v>462-957-2149</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>887</v>
       </c>
@@ -14304,7 +14305,7 @@
         <v>605-620-0233</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>889</v>
       </c>
@@ -14320,7 +14321,7 @@
         <v>391-251-1894</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>891</v>
       </c>
@@ -14336,7 +14337,7 @@
         <v>844-451-9660</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>893</v>
       </c>
@@ -14352,7 +14353,7 @@
         <v>561-102-9619</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>895</v>
       </c>
@@ -14368,7 +14369,7 @@
         <v>759-502-7537</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>897</v>
       </c>
@@ -14384,7 +14385,7 @@
         <v>753-639-3235</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>899</v>
       </c>
@@ -14400,7 +14401,7 @@
         <v>455-802-0402</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>901</v>
       </c>
@@ -14416,7 +14417,7 @@
         <v>751-936-0234</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>903</v>
       </c>
@@ -14432,7 +14433,7 @@
         <v>664-140-1435</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>905</v>
       </c>
@@ -14448,7 +14449,7 @@
         <v>283-947-5177</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>907</v>
       </c>
@@ -14464,7 +14465,7 @@
         <v>183-933-1188</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>909</v>
       </c>
@@ -14480,7 +14481,7 @@
         <v>377-101-7874</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>911</v>
       </c>
@@ -14496,7 +14497,7 @@
         <v>329-972-5366</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>913</v>
       </c>
@@ -14512,7 +14513,7 @@
         <v>373-593-2282</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>915</v>
       </c>
@@ -14528,7 +14529,7 @@
         <v>893-216-2288</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>917</v>
       </c>
@@ -14544,7 +14545,7 @@
         <v>710-607-0851</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>919</v>
       </c>
@@ -14560,7 +14561,7 @@
         <v>350-257-8079</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>921</v>
       </c>
@@ -14576,7 +14577,7 @@
         <v>966-107-8553</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>923</v>
       </c>
@@ -14592,7 +14593,7 @@
         <v>423-516-4818</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>925</v>
       </c>
@@ -14608,7 +14609,7 @@
         <v>311-309-7038</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>927</v>
       </c>
@@ -14624,7 +14625,7 @@
         <v>789-842-6925</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>929</v>
       </c>
@@ -14640,7 +14641,7 @@
         <v>973-432-4407</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>931</v>
       </c>
@@ -14656,7 +14657,7 @@
         <v>246-352-2374</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>933</v>
       </c>
@@ -14672,7 +14673,7 @@
         <v>948-163-6060</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>935</v>
       </c>
@@ -14688,7 +14689,7 @@
         <v>467-450-0231</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>937</v>
       </c>
@@ -14704,7 +14705,7 @@
         <v>424-789-2323</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>939</v>
       </c>
@@ -14720,7 +14721,7 @@
         <v>764-575-0094</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>941</v>
       </c>
@@ -14736,7 +14737,7 @@
         <v>551-214-6969</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>943</v>
       </c>
@@ -14752,7 +14753,7 @@
         <v>167-772-0734</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>945</v>
       </c>
@@ -14768,7 +14769,7 @@
         <v>268-768-4176</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>947</v>
       </c>
@@ -14784,7 +14785,7 @@
         <v>590-249-6491</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>949</v>
       </c>
@@ -14800,7 +14801,7 @@
         <v>903-947-6088</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>951</v>
       </c>
@@ -14816,7 +14817,7 @@
         <v>472-207-8725</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>953</v>
       </c>
@@ -14832,7 +14833,7 @@
         <v>751-887-4596</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>955</v>
       </c>
@@ -14848,7 +14849,7 @@
         <v>405-393-3626</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>957</v>
       </c>
@@ -14864,7 +14865,7 @@
         <v>149-980-1571</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>959</v>
       </c>
@@ -14880,7 +14881,7 @@
         <v>378-452-3296</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>961</v>
       </c>
@@ -14896,7 +14897,7 @@
         <v>261-424-4072</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>963</v>
       </c>
@@ -14912,7 +14913,7 @@
         <v>193-548-4412</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>965</v>
       </c>
@@ -14928,7 +14929,7 @@
         <v>881-610-3710</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>967</v>
       </c>
@@ -14944,7 +14945,7 @@
         <v>876-662-7406</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>969</v>
       </c>
@@ -14960,7 +14961,7 @@
         <v>370-570-0913</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>971</v>
       </c>
@@ -14976,7 +14977,7 @@
         <v>435-357-7113</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>973</v>
       </c>
@@ -14992,7 +14993,7 @@
         <v>135-598-1885</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>975</v>
       </c>
@@ -15008,7 +15009,7 @@
         <v>761-128-4619</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>977</v>
       </c>
@@ -15024,7 +15025,7 @@
         <v>455-680-0355</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>979</v>
       </c>
@@ -15040,7 +15041,7 @@
         <v>114-404-5103</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>981</v>
       </c>
@@ -15056,7 +15057,7 @@
         <v>743-655-3593</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>983</v>
       </c>
@@ -15072,7 +15073,7 @@
         <v>758-105-8708</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>985</v>
       </c>
@@ -15088,7 +15089,7 @@
         <v>665-754-0649</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>987</v>
       </c>
@@ -15104,7 +15105,7 @@
         <v>658-487-2070</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>989</v>
       </c>
@@ -15120,7 +15121,7 @@
         <v>203-765-4253</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>991</v>
       </c>
@@ -15136,7 +15137,7 @@
         <v>170-201-8223</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>993</v>
       </c>
@@ -15152,7 +15153,7 @@
         <v>761-648-8918</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>995</v>
       </c>
@@ -15168,7 +15169,7 @@
         <v>458-569-9847</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>997</v>
       </c>
@@ -15184,7 +15185,7 @@
         <v>257-767-2028</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>999</v>
       </c>
@@ -15200,7 +15201,7 @@
         <v>195-796-0478</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>1001</v>
       </c>
@@ -15216,7 +15217,7 @@
         <v>136-305-6692</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>1003</v>
       </c>
@@ -15232,7 +15233,7 @@
         <v>645-776-4114</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>1005</v>
       </c>
@@ -15248,7 +15249,7 @@
         <v>573-317-9912</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>1007</v>
       </c>
@@ -15264,7 +15265,7 @@
         <v>674-771-6259</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>1009</v>
       </c>
@@ -15280,7 +15281,7 @@
         <v>300-311-7240</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>1011</v>
       </c>
@@ -15296,7 +15297,7 @@
         <v>750-993-0527</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>1013</v>
       </c>
@@ -15312,7 +15313,7 @@
         <v>292-278-5697</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>1015</v>
       </c>
@@ -15328,7 +15329,7 @@
         <v>927-561-7522</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>1017</v>
       </c>
@@ -15344,7 +15345,7 @@
         <v>744-451-7234</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1019</v>
       </c>
@@ -15360,7 +15361,7 @@
         <v>135-654-3570</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>1021</v>
       </c>
@@ -15376,7 +15377,7 @@
         <v>702-486-6794</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>1023</v>
       </c>
@@ -15392,7 +15393,7 @@
         <v>779-597-3786</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>1025</v>
       </c>
@@ -15408,7 +15409,7 @@
         <v>885-773-1710</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>1027</v>
       </c>
@@ -15424,7 +15425,7 @@
         <v>447-909-9438</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>1029</v>
       </c>
@@ -15440,7 +15441,7 @@
         <v>824-193-3279</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>1031</v>
       </c>
@@ -15456,7 +15457,7 @@
         <v>839-710-7460</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>1033</v>
       </c>
@@ -15472,7 +15473,7 @@
         <v>961-318-9328</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>1035</v>
       </c>
@@ -15488,7 +15489,7 @@
         <v>723-146-9717</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>1037</v>
       </c>
@@ -15504,7 +15505,7 @@
         <v>352-984-9968</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>1039</v>
       </c>
@@ -15520,7 +15521,7 @@
         <v>564-429-2052</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>1041</v>
       </c>
@@ -15536,7 +15537,7 @@
         <v>739-477-3778</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>1043</v>
       </c>
@@ -15552,7 +15553,7 @@
         <v>448-564-3892</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>1045</v>
       </c>
@@ -15568,7 +15569,7 @@
         <v>266-534-5289</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>1047</v>
       </c>
@@ -15584,7 +15585,7 @@
         <v>921-231-4197</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>1049</v>
       </c>
@@ -15600,7 +15601,7 @@
         <v>991-303-6184</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>1051</v>
       </c>
@@ -15616,7 +15617,7 @@
         <v>761-204-7649</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>1053</v>
       </c>
@@ -15632,7 +15633,7 @@
         <v>604-271-4222</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>1055</v>
       </c>
@@ -15648,7 +15649,7 @@
         <v>596-311-8368</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>1057</v>
       </c>
@@ -15664,7 +15665,7 @@
         <v>938-328-2900</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>1059</v>
       </c>
@@ -15680,7 +15681,7 @@
         <v>481-258-9179</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>1061</v>
       </c>
@@ -15696,7 +15697,7 @@
         <v>969-469-8968</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>1063</v>
       </c>
@@ -15712,7 +15713,7 @@
         <v>626-854-8360</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>1065</v>
       </c>
@@ -15728,7 +15729,7 @@
         <v>593-127-3598</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>1067</v>
       </c>
@@ -15744,7 +15745,7 @@
         <v>305-279-9554</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>1069</v>
       </c>
@@ -15760,7 +15761,7 @@
         <v>512-288-1724</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>1071</v>
       </c>
@@ -15776,7 +15777,7 @@
         <v>239-888-7899</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>1073</v>
       </c>
@@ -15792,7 +15793,7 @@
         <v>458-456-0417</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>1075</v>
       </c>
@@ -15808,7 +15809,7 @@
         <v>946-988-2551</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>1077</v>
       </c>
@@ -15824,7 +15825,7 @@
         <v>153-240-8427</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>1079</v>
       </c>
@@ -15840,7 +15841,7 @@
         <v>126-736-5811</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>1081</v>
       </c>
@@ -15856,7 +15857,7 @@
         <v>780-531-5017</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>1083</v>
       </c>
@@ -15872,7 +15873,7 @@
         <v>932-959-6129</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>1085</v>
       </c>
@@ -15888,7 +15889,7 @@
         <v>348-362-6587</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>1087</v>
       </c>
@@ -15904,7 +15905,7 @@
         <v>146-835-5571</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>1089</v>
       </c>
@@ -15920,7 +15921,7 @@
         <v>767-176-8463</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>1091</v>
       </c>
@@ -15936,7 +15937,7 @@
         <v>536-992-2282</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>1093</v>
       </c>
@@ -15952,7 +15953,7 @@
         <v>212-687-0768</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1095</v>
       </c>
@@ -15968,7 +15969,7 @@
         <v>928-642-0325</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1097</v>
       </c>
@@ -15984,7 +15985,7 @@
         <v>252-111-2277</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1099</v>
       </c>
@@ -16000,7 +16001,7 @@
         <v>591-264-8227</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1101</v>
       </c>
@@ -16016,7 +16017,7 @@
         <v>313-335-1811</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>1103</v>
       </c>
@@ -16032,7 +16033,7 @@
         <v>662-694-9883</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>1105</v>
       </c>
@@ -16048,7 +16049,7 @@
         <v>774-842-3709</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1107</v>
       </c>
@@ -16064,7 +16065,7 @@
         <v>290-109-5526</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1109</v>
       </c>
@@ -16080,7 +16081,7 @@
         <v>379-965-0239</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1111</v>
       </c>
@@ -16096,7 +16097,7 @@
         <v>613-828-6207</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>1113</v>
       </c>
@@ -16112,7 +16113,7 @@
         <v>685-701-6520</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1115</v>
       </c>
@@ -16128,7 +16129,7 @@
         <v>177-927-3954</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1117</v>
       </c>
@@ -16144,7 +16145,7 @@
         <v>708-858-9013</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1119</v>
       </c>
@@ -16160,7 +16161,7 @@
         <v>707-787-2722</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>1121</v>
       </c>
@@ -16176,7 +16177,7 @@
         <v>352-124-2585</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1123</v>
       </c>
@@ -16192,7 +16193,7 @@
         <v>935-973-4864</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1125</v>
       </c>
@@ -16208,7 +16209,7 @@
         <v>601-722-3997</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1127</v>
       </c>
@@ -16224,7 +16225,7 @@
         <v>843-836-6951</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1129</v>
       </c>
@@ -16240,7 +16241,7 @@
         <v>365-933-1624</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1131</v>
       </c>
@@ -16256,7 +16257,7 @@
         <v>598-857-8164</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1133</v>
       </c>
@@ -16272,7 +16273,7 @@
         <v>571-285-7227</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>1135</v>
       </c>
@@ -16288,7 +16289,7 @@
         <v>953-598-3712</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1137</v>
       </c>
@@ -16304,7 +16305,7 @@
         <v>893-518-3667</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1139</v>
       </c>
@@ -16320,7 +16321,7 @@
         <v>269-866-5024</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1141</v>
       </c>
@@ -16336,7 +16337,7 @@
         <v>453-588-8572</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>1143</v>
       </c>
@@ -16352,7 +16353,7 @@
         <v>337-866-5276</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>1145</v>
       </c>
@@ -16368,7 +16369,7 @@
         <v>303-685-6523</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>1147</v>
       </c>
@@ -16384,7 +16385,7 @@
         <v>467-262-7944</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1149</v>
       </c>
@@ -16400,7 +16401,7 @@
         <v>653-692-5780</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>1151</v>
       </c>
@@ -16416,7 +16417,7 @@
         <v>557-433-2921</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1153</v>
       </c>
@@ -16432,7 +16433,7 @@
         <v>455-618-9560</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1155</v>
       </c>
@@ -16448,7 +16449,7 @@
         <v>822-197-5403</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1157</v>
       </c>
@@ -16464,7 +16465,7 @@
         <v>498-301-1316</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>1159</v>
       </c>
@@ -16480,7 +16481,7 @@
         <v>487-211-2722</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>1161</v>
       </c>
@@ -16496,7 +16497,7 @@
         <v>681-102-3030</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1163</v>
       </c>
@@ -16512,7 +16513,7 @@
         <v>570-381-2368</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>1165</v>
       </c>
@@ -16528,7 +16529,7 @@
         <v>534-530-3655</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1167</v>
       </c>
@@ -16544,7 +16545,7 @@
         <v>918-980-7384</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>1169</v>
       </c>
@@ -16560,7 +16561,7 @@
         <v>386-662-4387</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>1171</v>
       </c>
@@ -16576,7 +16577,7 @@
         <v>134-409-1622</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1173</v>
       </c>
@@ -16592,7 +16593,7 @@
         <v>106-445-4980</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1175</v>
       </c>
@@ -16608,7 +16609,7 @@
         <v>303-103-9795</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1177</v>
       </c>
@@ -16624,7 +16625,7 @@
         <v>214-420-9980</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1179</v>
       </c>
@@ -16640,7 +16641,7 @@
         <v>522-668-0615</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1181</v>
       </c>
@@ -16656,7 +16657,7 @@
         <v>276-460-2953</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>1183</v>
       </c>
@@ -16672,7 +16673,7 @@
         <v>478-100-1797</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>1185</v>
       </c>
@@ -16688,7 +16689,7 @@
         <v>682-592-4804</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1187</v>
       </c>
@@ -16704,7 +16705,7 @@
         <v>517-104-1966</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1189</v>
       </c>
@@ -16720,7 +16721,7 @@
         <v>665-982-9177</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>1191</v>
       </c>
@@ -16736,7 +16737,7 @@
         <v>946-172-8407</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>1193</v>
       </c>
@@ -16752,7 +16753,7 @@
         <v>321-569-1776</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>1195</v>
       </c>
@@ -16768,7 +16769,7 @@
         <v>646-498-7572</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1197</v>
       </c>
@@ -16784,7 +16785,7 @@
         <v>106-641-7900</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1199</v>
       </c>
@@ -16800,7 +16801,7 @@
         <v>570-213-7286</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>1201</v>
       </c>
@@ -16816,7 +16817,7 @@
         <v>785-445-6689</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>1203</v>
       </c>
@@ -16832,7 +16833,7 @@
         <v>939-656-6312</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>1205</v>
       </c>
@@ -16848,7 +16849,7 @@
         <v>774-858-5192</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>1207</v>
       </c>
@@ -16864,7 +16865,7 @@
         <v>845-320-5588</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>1209</v>
       </c>
@@ -16880,7 +16881,7 @@
         <v>581-246-7481</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>1211</v>
       </c>
@@ -16896,7 +16897,7 @@
         <v>127-898-3709</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>1213</v>
       </c>
@@ -16912,7 +16913,7 @@
         <v>170-582-9364</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>1215</v>
       </c>
@@ -16928,7 +16929,7 @@
         <v>295-401-1238</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1217</v>
       </c>
@@ -16944,7 +16945,7 @@
         <v>503-504-1999</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>1219</v>
       </c>
@@ -16960,7 +16961,7 @@
         <v>202-495-8245</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>1221</v>
       </c>
@@ -16976,7 +16977,7 @@
         <v>586-565-4268</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1223</v>
       </c>
@@ -16992,7 +16993,7 @@
         <v>739-964-9128</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>1225</v>
       </c>
@@ -17008,7 +17009,7 @@
         <v>751-555-6247</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>1227</v>
       </c>
@@ -17024,7 +17025,7 @@
         <v>163-535-5110</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>1229</v>
       </c>
@@ -17040,7 +17041,7 @@
         <v>150-252-9233</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>1231</v>
       </c>
@@ -17056,7 +17057,7 @@
         <v>167-135-9995</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1233</v>
       </c>
@@ -17072,7 +17073,7 @@
         <v>316-523-6445</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>1235</v>
       </c>
@@ -17088,7 +17089,7 @@
         <v>713-314-0292</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>1237</v>
       </c>
@@ -17104,7 +17105,7 @@
         <v>900-703-5188</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>1239</v>
       </c>
@@ -17120,7 +17121,7 @@
         <v>978-968-5893</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1241</v>
       </c>
@@ -17136,7 +17137,7 @@
         <v>443-701-0251</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>1243</v>
       </c>
@@ -17152,7 +17153,7 @@
         <v>361-191-4193</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1245</v>
       </c>
@@ -17168,7 +17169,7 @@
         <v>312-400-4524</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1247</v>
       </c>
@@ -17184,7 +17185,7 @@
         <v>495-691-8743</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1249</v>
       </c>
@@ -17200,7 +17201,7 @@
         <v>330-898-7782</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1251</v>
       </c>
@@ -17216,7 +17217,7 @@
         <v>308-845-6674</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>1253</v>
       </c>
@@ -17232,7 +17233,7 @@
         <v>217-791-7167</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>1255</v>
       </c>
@@ -17248,7 +17249,7 @@
         <v>488-122-1934</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>1257</v>
       </c>
@@ -17264,7 +17265,7 @@
         <v>111-502-3144</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>1259</v>
       </c>
@@ -17280,7 +17281,7 @@
         <v>463-559-2497</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1261</v>
       </c>
@@ -17296,7 +17297,7 @@
         <v>812-717-8761</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>1263</v>
       </c>
@@ -17312,7 +17313,7 @@
         <v>596-421-3212</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>1265</v>
       </c>
@@ -17328,7 +17329,7 @@
         <v>539-130-1120</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>1267</v>
       </c>
@@ -17344,7 +17345,7 @@
         <v>768-178-0015</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>1269</v>
       </c>
@@ -17360,7 +17361,7 @@
         <v>183-402-6879</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>1271</v>
       </c>
@@ -17376,7 +17377,7 @@
         <v>456-664-1903</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>1273</v>
       </c>
@@ -17392,7 +17393,7 @@
         <v>778-302-9257</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>1275</v>
       </c>
@@ -17408,7 +17409,7 @@
         <v>524-346-5250</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>1277</v>
       </c>
@@ -17424,7 +17425,7 @@
         <v>453-629-0337</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>1279</v>
       </c>
@@ -17440,7 +17441,7 @@
         <v>421-984-3886</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>1281</v>
       </c>
@@ -17456,7 +17457,7 @@
         <v>833-908-0338</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1283</v>
       </c>
@@ -17472,7 +17473,7 @@
         <v>414-720-1045</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>1285</v>
       </c>
@@ -17488,7 +17489,7 @@
         <v>186-438-3853</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>1287</v>
       </c>
@@ -17504,7 +17505,7 @@
         <v>727-594-7980</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1289</v>
       </c>
@@ -17520,7 +17521,7 @@
         <v>648-675-6634</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>1291</v>
       </c>
@@ -17536,7 +17537,7 @@
         <v>375-674-9035</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>1293</v>
       </c>
@@ -17552,7 +17553,7 @@
         <v>689-965-6904</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>1295</v>
       </c>
@@ -17568,7 +17569,7 @@
         <v>699-838-7419</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>1297</v>
       </c>
@@ -17584,7 +17585,7 @@
         <v>229-832-4068</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>1299</v>
       </c>
@@ -17600,7 +17601,7 @@
         <v>377-996-6113</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>1301</v>
       </c>
@@ -17616,7 +17617,7 @@
         <v>936-616-5762</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>1303</v>
       </c>
@@ -17632,7 +17633,7 @@
         <v>603-726-2142</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>1305</v>
       </c>
@@ -17648,7 +17649,7 @@
         <v>982-134-0706</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1307</v>
       </c>
@@ -17664,7 +17665,7 @@
         <v>758-166-7458</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>1309</v>
       </c>
@@ -17680,7 +17681,7 @@
         <v>109-885-6818</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>1311</v>
       </c>
@@ -17696,7 +17697,7 @@
         <v>672-743-9436</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>1313</v>
       </c>
@@ -17712,7 +17713,7 @@
         <v>919-358-6320</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>1315</v>
       </c>
@@ -17728,7 +17729,7 @@
         <v>787-505-3283</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>1317</v>
       </c>
@@ -17744,7 +17745,7 @@
         <v>988-276-7301</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>1319</v>
       </c>
@@ -17760,7 +17761,7 @@
         <v>718-250-0320</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>1321</v>
       </c>
@@ -17776,7 +17777,7 @@
         <v>138-182-5228</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>1323</v>
       </c>
@@ -17792,7 +17793,7 @@
         <v>735-927-3522</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>1325</v>
       </c>
@@ -17808,7 +17809,7 @@
         <v>526-284-6307</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>1327</v>
       </c>
@@ -17824,7 +17825,7 @@
         <v>298-392-4476</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>1329</v>
       </c>
@@ -17840,7 +17841,7 @@
         <v>450-369-1730</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>1331</v>
       </c>
@@ -17856,7 +17857,7 @@
         <v>894-586-6707</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>1333</v>
       </c>
@@ -17872,7 +17873,7 @@
         <v>672-665-5387</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>1335</v>
       </c>
@@ -17888,7 +17889,7 @@
         <v>611-602-1436</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>1337</v>
       </c>
@@ -17904,7 +17905,7 @@
         <v>176-187-2270</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>1339</v>
       </c>
@@ -17920,7 +17921,7 @@
         <v>770-944-4240</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>1341</v>
       </c>
@@ -17936,7 +17937,7 @@
         <v>570-538-7416</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>1343</v>
       </c>
@@ -17952,7 +17953,7 @@
         <v>332-169-2095</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>1345</v>
       </c>
@@ -17968,7 +17969,7 @@
         <v>279-328-6838</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>1347</v>
       </c>
@@ -17984,7 +17985,7 @@
         <v>937-229-7737</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>1349</v>
       </c>
@@ -18000,7 +18001,7 @@
         <v>507-749-2813</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>1351</v>
       </c>
@@ -18016,7 +18017,7 @@
         <v>316-466-9751</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1353</v>
       </c>
@@ -18032,7 +18033,7 @@
         <v>733-452-3960</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>1355</v>
       </c>
@@ -18048,7 +18049,7 @@
         <v>355-111-0735</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>1357</v>
       </c>
@@ -18064,7 +18065,7 @@
         <v>775-774-8665</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1359</v>
       </c>
@@ -18080,7 +18081,7 @@
         <v>390-610-9164</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>1361</v>
       </c>
@@ -18096,7 +18097,7 @@
         <v>252-424-1187</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>1363</v>
       </c>
@@ -18112,7 +18113,7 @@
         <v>358-647-0836</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>1365</v>
       </c>
@@ -18128,7 +18129,7 @@
         <v>894-544-1628</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1367</v>
       </c>
@@ -18144,7 +18145,7 @@
         <v>843-128-8989</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1369</v>
       </c>
@@ -18160,7 +18161,7 @@
         <v>332-456-2751</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1371</v>
       </c>
@@ -18176,7 +18177,7 @@
         <v>383-374-8494</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1373</v>
       </c>
@@ -18192,7 +18193,7 @@
         <v>378-285-2570</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1375</v>
       </c>
@@ -18208,7 +18209,7 @@
         <v>489-255-3296</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1377</v>
       </c>
@@ -18224,7 +18225,7 @@
         <v>922-606-9951</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>1379</v>
       </c>
@@ -18240,7 +18241,7 @@
         <v>440-581-2647</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>1381</v>
       </c>
@@ -18256,7 +18257,7 @@
         <v>761-900-9112</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>1383</v>
       </c>
@@ -18272,7 +18273,7 @@
         <v>722-431-6780</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>1385</v>
       </c>
@@ -18288,7 +18289,7 @@
         <v>141-333-7291</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1387</v>
       </c>
@@ -18304,7 +18305,7 @@
         <v>310-503-6719</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>1389</v>
       </c>
@@ -18320,7 +18321,7 @@
         <v>308-127-9003</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>1391</v>
       </c>
@@ -18336,7 +18337,7 @@
         <v>974-236-6209</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1393</v>
       </c>
@@ -18352,7 +18353,7 @@
         <v>707-499-1967</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1395</v>
       </c>
@@ -18368,7 +18369,7 @@
         <v>877-346-3647</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1397</v>
       </c>
@@ -18384,7 +18385,7 @@
         <v>444-743-8967</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>1399</v>
       </c>
@@ -18400,7 +18401,7 @@
         <v>569-540-9883</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1401</v>
       </c>
@@ -18416,7 +18417,7 @@
         <v>826-242-8349</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1403</v>
       </c>
@@ -18432,7 +18433,7 @@
         <v>545-981-8630</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1405</v>
       </c>
@@ -18448,7 +18449,7 @@
         <v>201-603-2347</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1407</v>
       </c>
@@ -18464,7 +18465,7 @@
         <v>370-814-1674</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1409</v>
       </c>
@@ -18480,7 +18481,7 @@
         <v>616-730-5296</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1411</v>
       </c>
@@ -18496,7 +18497,7 @@
         <v>843-710-1489</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1413</v>
       </c>
@@ -18512,7 +18513,7 @@
         <v>247-898-7315</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>1415</v>
       </c>
@@ -18528,7 +18529,7 @@
         <v>151-359-2465</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>1417</v>
       </c>
@@ -18544,7 +18545,7 @@
         <v>687-959-1105</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>1419</v>
       </c>
@@ -18560,7 +18561,7 @@
         <v>669-711-4321</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>1421</v>
       </c>
@@ -18576,7 +18577,7 @@
         <v>405-675-2175</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1423</v>
       </c>
@@ -18592,7 +18593,7 @@
         <v>949-334-1733</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1425</v>
       </c>
@@ -18608,7 +18609,7 @@
         <v>445-823-3590</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1427</v>
       </c>
@@ -18624,7 +18625,7 @@
         <v>589-276-4463</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1429</v>
       </c>
@@ -18640,7 +18641,7 @@
         <v>601-723-0307</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1431</v>
       </c>
@@ -18656,7 +18657,7 @@
         <v>278-636-8899</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1433</v>
       </c>
@@ -18672,7 +18673,7 @@
         <v>596-546-9670</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1435</v>
       </c>
@@ -18688,7 +18689,7 @@
         <v>396-807-8364</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1437</v>
       </c>
@@ -18704,7 +18705,7 @@
         <v>448-531-8463</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1439</v>
       </c>
@@ -18720,7 +18721,7 @@
         <v>351-648-5911</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1441</v>
       </c>
@@ -18736,7 +18737,7 @@
         <v>794-728-6758</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1443</v>
       </c>
@@ -18752,7 +18753,7 @@
         <v>933-755-8242</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>1445</v>
       </c>
@@ -18768,7 +18769,7 @@
         <v>540-612-2996</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>1447</v>
       </c>
@@ -18784,7 +18785,7 @@
         <v>819-552-1924</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>1449</v>
       </c>
@@ -18800,7 +18801,7 @@
         <v>967-781-3821</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1451</v>
       </c>
@@ -18816,7 +18817,7 @@
         <v>942-414-7396</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1453</v>
       </c>
@@ -18832,7 +18833,7 @@
         <v>800-507-0230</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1455</v>
       </c>
@@ -18848,7 +18849,7 @@
         <v>925-458-4197</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1457</v>
       </c>
@@ -18864,7 +18865,7 @@
         <v>448-118-2045</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1459</v>
       </c>
@@ -18880,7 +18881,7 @@
         <v>229-212-7726</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1461</v>
       </c>
@@ -18896,7 +18897,7 @@
         <v>515-825-8471</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1463</v>
       </c>
@@ -18912,7 +18913,7 @@
         <v>549-150-9921</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1465</v>
       </c>
@@ -18928,7 +18929,7 @@
         <v>803-775-4525</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1467</v>
       </c>
@@ -18944,7 +18945,7 @@
         <v>355-119-9513</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>1469</v>
       </c>
@@ -18960,7 +18961,7 @@
         <v>799-261-4899</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1471</v>
       </c>
@@ -18976,7 +18977,7 @@
         <v>355-495-9048</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>1473</v>
       </c>
@@ -18992,7 +18993,7 @@
         <v>738-696-1590</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>1475</v>
       </c>
@@ -19008,7 +19009,7 @@
         <v>475-358-0515</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>1477</v>
       </c>
@@ -19024,7 +19025,7 @@
         <v>493-781-4576</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1479</v>
       </c>
@@ -19040,7 +19041,7 @@
         <v>944-583-3188</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1481</v>
       </c>
@@ -19056,7 +19057,7 @@
         <v>883-717-5498</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1483</v>
       </c>
@@ -19072,7 +19073,7 @@
         <v>525-943-9149</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1485</v>
       </c>
@@ -19088,7 +19089,7 @@
         <v>277-637-4376</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1487</v>
       </c>
@@ -19104,7 +19105,7 @@
         <v>332-513-7895</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1489</v>
       </c>
@@ -19120,7 +19121,7 @@
         <v>455-798-1884</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1491</v>
       </c>
@@ -19136,7 +19137,7 @@
         <v>273-267-9513</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1493</v>
       </c>
@@ -19152,7 +19153,7 @@
         <v>802-182-8595</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1495</v>
       </c>
@@ -19168,7 +19169,7 @@
         <v>457-393-1253</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1497</v>
       </c>
@@ -19184,7 +19185,7 @@
         <v>433-639-5583</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1499</v>
       </c>
@@ -19200,7 +19201,7 @@
         <v>376-233-7526</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1501</v>
       </c>
@@ -19216,7 +19217,7 @@
         <v>127-108-2171</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1503</v>
       </c>
@@ -19232,7 +19233,7 @@
         <v>984-346-9042</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1505</v>
       </c>
@@ -19248,7 +19249,7 @@
         <v>851-742-8895</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1507</v>
       </c>
@@ -19264,7 +19265,7 @@
         <v>985-471-9742</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1509</v>
       </c>
@@ -19280,7 +19281,7 @@
         <v>386-352-4876</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1511</v>
       </c>
@@ -19296,7 +19297,7 @@
         <v>249-765-6062</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1513</v>
       </c>
@@ -19312,7 +19313,7 @@
         <v>399-289-9631</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1515</v>
       </c>
@@ -19328,7 +19329,7 @@
         <v>578-459-6638</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1517</v>
       </c>
@@ -19344,7 +19345,7 @@
         <v>347-788-6705</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1519</v>
       </c>
@@ -19360,7 +19361,7 @@
         <v>829-594-1608</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1521</v>
       </c>
@@ -19376,7 +19377,7 @@
         <v>703-165-4855</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>1523</v>
       </c>
@@ -19392,7 +19393,7 @@
         <v>800-511-7174</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1525</v>
       </c>
@@ -19408,7 +19409,7 @@
         <v>501-974-4550</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1527</v>
       </c>
@@ -19424,7 +19425,7 @@
         <v>854-496-9131</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1529</v>
       </c>
@@ -19440,7 +19441,7 @@
         <v>693-918-4196</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1531</v>
       </c>
@@ -19456,7 +19457,7 @@
         <v>232-519-8709</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1533</v>
       </c>
@@ -19472,7 +19473,7 @@
         <v>299-568-5283</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1535</v>
       </c>
@@ -19488,7 +19489,7 @@
         <v>795-436-0703</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>1537</v>
       </c>
@@ -19504,7 +19505,7 @@
         <v>712-161-0026</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1539</v>
       </c>
@@ -19520,7 +19521,7 @@
         <v>879-666-9285</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1541</v>
       </c>
@@ -19536,7 +19537,7 @@
         <v>396-421-1393</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>1543</v>
       </c>
@@ -19552,7 +19553,7 @@
         <v>480-765-8734</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>1545</v>
       </c>
@@ -19568,7 +19569,7 @@
         <v>934-615-1486</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1547</v>
       </c>
@@ -19584,7 +19585,7 @@
         <v>570-435-2198</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>1549</v>
       </c>
@@ -19600,7 +19601,7 @@
         <v>219-869-4029</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1551</v>
       </c>
@@ -19616,7 +19617,7 @@
         <v>969-259-2847</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>1553</v>
       </c>
@@ -19632,7 +19633,7 @@
         <v>226-277-3773</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1555</v>
       </c>
@@ -19648,7 +19649,7 @@
         <v>192-115-1727</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1557</v>
       </c>
@@ -19664,7 +19665,7 @@
         <v>393-757-5115</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1559</v>
       </c>
@@ -19680,7 +19681,7 @@
         <v>333-114-8042</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>1561</v>
       </c>
@@ -19696,7 +19697,7 @@
         <v>241-676-6803</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1563</v>
       </c>
@@ -19712,7 +19713,7 @@
         <v>937-939-2035</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1565</v>
       </c>
@@ -19728,7 +19729,7 @@
         <v>842-384-0413</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1567</v>
       </c>
@@ -19744,7 +19745,7 @@
         <v>725-672-5638</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1569</v>
       </c>
@@ -19760,7 +19761,7 @@
         <v>327-430-0788</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1571</v>
       </c>
@@ -19776,7 +19777,7 @@
         <v>817-900-5792</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1573</v>
       </c>
@@ -19792,7 +19793,7 @@
         <v>700-720-9117</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1575</v>
       </c>
@@ -19808,7 +19809,7 @@
         <v>702-523-3305</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1577</v>
       </c>
@@ -19824,7 +19825,7 @@
         <v>990-665-6643</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1579</v>
       </c>
@@ -19840,7 +19841,7 @@
         <v>439-834-3706</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1581</v>
       </c>
@@ -19856,7 +19857,7 @@
         <v>116-272-0299</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1583</v>
       </c>
@@ -19872,7 +19873,7 @@
         <v>309-663-0705</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1585</v>
       </c>
@@ -19888,7 +19889,7 @@
         <v>720-958-3720</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1587</v>
       </c>
@@ -19904,7 +19905,7 @@
         <v>932-792-3487</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1589</v>
       </c>
@@ -19920,7 +19921,7 @@
         <v>758-210-5697</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1591</v>
       </c>
@@ -19936,7 +19937,7 @@
         <v>806-504-0629</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1593</v>
       </c>
@@ -19952,7 +19953,7 @@
         <v>864-505-7701</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1595</v>
       </c>
@@ -19968,7 +19969,7 @@
         <v>400-377-1265</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1597</v>
       </c>
@@ -19984,7 +19985,7 @@
         <v>610-976-3612</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>1599</v>
       </c>
@@ -20000,7 +20001,7 @@
         <v>859-738-6887</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1601</v>
       </c>
@@ -20016,7 +20017,7 @@
         <v>947-633-2329</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1603</v>
       </c>
@@ -20032,7 +20033,7 @@
         <v>454-958-2318</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1605</v>
       </c>
@@ -20048,7 +20049,7 @@
         <v>423-437-8451</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1607</v>
       </c>
@@ -20064,7 +20065,7 @@
         <v>742-506-0321</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1609</v>
       </c>
@@ -20080,7 +20081,7 @@
         <v>755-391-5505</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1611</v>
       </c>
@@ -20096,7 +20097,7 @@
         <v>277-152-7669</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1613</v>
       </c>
@@ -20112,7 +20113,7 @@
         <v>788-697-8772</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1615</v>
       </c>
@@ -20128,7 +20129,7 @@
         <v>588-951-6867</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1617</v>
       </c>
@@ -20144,7 +20145,7 @@
         <v>637-995-7762</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1619</v>
       </c>
@@ -20160,7 +20161,7 @@
         <v>408-434-3751</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1621</v>
       </c>
@@ -20176,7 +20177,7 @@
         <v>682-378-7148</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1623</v>
       </c>
@@ -20192,7 +20193,7 @@
         <v>437-654-0171</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1625</v>
       </c>
@@ -20208,7 +20209,7 @@
         <v>923-765-8447</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>1627</v>
       </c>
@@ -20224,7 +20225,7 @@
         <v>544-859-0582</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1629</v>
       </c>
@@ -20240,7 +20241,7 @@
         <v>522-401-1811</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1631</v>
       </c>
@@ -20256,7 +20257,7 @@
         <v>211-457-7071</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1633</v>
       </c>
@@ -20272,7 +20273,7 @@
         <v>477-697-2504</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1635</v>
       </c>
@@ -20288,7 +20289,7 @@
         <v>540-512-5458</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>1637</v>
       </c>
@@ -20304,7 +20305,7 @@
         <v>143-122-1811</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>1639</v>
       </c>
@@ -20320,7 +20321,7 @@
         <v>391-673-8313</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>1641</v>
       </c>
@@ -20336,7 +20337,7 @@
         <v>216-914-5174</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>1643</v>
       </c>
@@ -20352,7 +20353,7 @@
         <v>124-250-9403</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>1645</v>
       </c>
@@ -20368,7 +20369,7 @@
         <v>999-212-3592</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>1647</v>
       </c>
@@ -20384,7 +20385,7 @@
         <v>140-788-6928</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>1649</v>
       </c>
@@ -20400,7 +20401,7 @@
         <v>265-715-1937</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1651</v>
       </c>
@@ -20416,7 +20417,7 @@
         <v>263-808-3200</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>1653</v>
       </c>
@@ -20432,7 +20433,7 @@
         <v>526-456-4612</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>1655</v>
       </c>
@@ -20448,7 +20449,7 @@
         <v>540-531-4995</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>1657</v>
       </c>
@@ -20464,7 +20465,7 @@
         <v>817-604-2732</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>1659</v>
       </c>
@@ -20480,7 +20481,7 @@
         <v>963-900-8109</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>1661</v>
       </c>
@@ -20496,7 +20497,7 @@
         <v>552-514-9101</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>1663</v>
       </c>
@@ -20512,7 +20513,7 @@
         <v>597-115-6314</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>1665</v>
       </c>
@@ -20528,7 +20529,7 @@
         <v>665-397-9352</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>1667</v>
       </c>
@@ -20544,7 +20545,7 @@
         <v>493-123-6249</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>1669</v>
       </c>
@@ -20560,7 +20561,7 @@
         <v>502-459-4082</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>1671</v>
       </c>
@@ -20576,7 +20577,7 @@
         <v>290-198-2972</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>1673</v>
       </c>
@@ -20592,7 +20593,7 @@
         <v>431-595-5397</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>1675</v>
       </c>
@@ -20608,7 +20609,7 @@
         <v>171-380-6180</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>1677</v>
       </c>
@@ -20624,7 +20625,7 @@
         <v>136-683-9313</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>1679</v>
       </c>
@@ -20640,7 +20641,7 @@
         <v>761-187-9291</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>1681</v>
       </c>
@@ -20656,7 +20657,7 @@
         <v>362-361-2603</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>1683</v>
       </c>
@@ -20672,7 +20673,7 @@
         <v>702-555-9780</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>1685</v>
       </c>
@@ -20688,7 +20689,7 @@
         <v>260-943-5125</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>1687</v>
       </c>
@@ -20704,7 +20705,7 @@
         <v>867-630-1311</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>1689</v>
       </c>
@@ -20720,7 +20721,7 @@
         <v>807-459-2832</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>1691</v>
       </c>
@@ -20736,7 +20737,7 @@
         <v>856-791-6591</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>1693</v>
       </c>
@@ -20752,7 +20753,7 @@
         <v>809-872-9665</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>1695</v>
       </c>
@@ -20768,7 +20769,7 @@
         <v>431-744-6362</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>1697</v>
       </c>
@@ -20784,7 +20785,7 @@
         <v>809-619-9105</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>1699</v>
       </c>
@@ -20800,7 +20801,7 @@
         <v>730-954-3075</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>1701</v>
       </c>
@@ -20816,7 +20817,7 @@
         <v>834-665-1200</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>1703</v>
       </c>
@@ -20832,7 +20833,7 @@
         <v>625-474-1160</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>1705</v>
       </c>
@@ -20848,7 +20849,7 @@
         <v>221-590-8693</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>1707</v>
       </c>
@@ -20864,7 +20865,7 @@
         <v>864-620-7588</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>1709</v>
       </c>
@@ -20880,7 +20881,7 @@
         <v>594-581-4853</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>1711</v>
       </c>
@@ -20896,7 +20897,7 @@
         <v>502-854-5532</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>1713</v>
       </c>
@@ -20912,7 +20913,7 @@
         <v>892-284-3568</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>1715</v>
       </c>
@@ -20928,7 +20929,7 @@
         <v>428-630-3091</v>
       </c>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>1717</v>
       </c>
@@ -20944,7 +20945,7 @@
         <v>372-691-0809</v>
       </c>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>1719</v>
       </c>
@@ -20960,7 +20961,7 @@
         <v>235-706-9437</v>
       </c>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>1721</v>
       </c>
@@ -20976,7 +20977,7 @@
         <v>768-424-5944</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>1723</v>
       </c>
@@ -20992,7 +20993,7 @@
         <v>300-912-2683</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>1725</v>
       </c>
@@ -21008,7 +21009,7 @@
         <v>126-416-5205</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>1727</v>
       </c>
@@ -21024,7 +21025,7 @@
         <v>864-327-1950</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>1729</v>
       </c>
@@ -21040,7 +21041,7 @@
         <v>167-767-2130</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>1731</v>
       </c>
@@ -21056,7 +21057,7 @@
         <v>236-669-4410</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>1733</v>
       </c>
@@ -21072,7 +21073,7 @@
         <v>242-192-7297</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>1735</v>
       </c>
@@ -21088,7 +21089,7 @@
         <v>965-975-8743</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>1737</v>
       </c>
@@ -21104,7 +21105,7 @@
         <v>951-241-3221</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>1739</v>
       </c>
@@ -21120,7 +21121,7 @@
         <v>452-228-4791</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>1741</v>
       </c>
@@ -21136,7 +21137,7 @@
         <v>510-412-1966</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>1743</v>
       </c>
@@ -21152,7 +21153,7 @@
         <v>277-724-6970</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>1745</v>
       </c>
@@ -21168,7 +21169,7 @@
         <v>294-527-4738</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>1747</v>
       </c>
@@ -21184,7 +21185,7 @@
         <v>688-407-1887</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>1749</v>
       </c>
@@ -21200,7 +21201,7 @@
         <v>224-750-7567</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>1751</v>
       </c>
@@ -21216,7 +21217,7 @@
         <v>365-920-3024</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>1753</v>
       </c>
@@ -21232,7 +21233,7 @@
         <v>905-186-2904</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>1755</v>
       </c>
@@ -21248,7 +21249,7 @@
         <v>581-121-0041</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>1757</v>
       </c>
@@ -21264,7 +21265,7 @@
         <v>766-489-4828</v>
       </c>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>1759</v>
       </c>
@@ -21280,7 +21281,7 @@
         <v>323-210-3584</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>1761</v>
       </c>
@@ -21296,7 +21297,7 @@
         <v>488-613-6615</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>1763</v>
       </c>
@@ -21312,7 +21313,7 @@
         <v>317-488-8171</v>
       </c>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>1765</v>
       </c>
@@ -21328,7 +21329,7 @@
         <v>488-448-8945</v>
       </c>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>1767</v>
       </c>
@@ -21344,7 +21345,7 @@
         <v>137-596-2131</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>1769</v>
       </c>
@@ -21360,7 +21361,7 @@
         <v>776-827-4608</v>
       </c>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>1771</v>
       </c>
@@ -21376,7 +21377,7 @@
         <v>854-618-9103</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>1773</v>
       </c>
@@ -21392,7 +21393,7 @@
         <v>800-947-5020</v>
       </c>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>1775</v>
       </c>
@@ -21408,7 +21409,7 @@
         <v>364-438-6079</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>1777</v>
       </c>
@@ -21424,7 +21425,7 @@
         <v>620-902-1909</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>1779</v>
       </c>
@@ -21440,7 +21441,7 @@
         <v>765-741-5998</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>1781</v>
       </c>
@@ -21456,7 +21457,7 @@
         <v>712-474-3784</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>1783</v>
       </c>
@@ -21472,7 +21473,7 @@
         <v>845-208-5850</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>1785</v>
       </c>
@@ -21488,7 +21489,7 @@
         <v>615-605-9816</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>1787</v>
       </c>
@@ -21504,7 +21505,7 @@
         <v>866-371-2455</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>1789</v>
       </c>
@@ -21520,7 +21521,7 @@
         <v>327-171-5832</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>1791</v>
       </c>
@@ -21536,7 +21537,7 @@
         <v>703-339-8598</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>1793</v>
       </c>
@@ -21552,7 +21553,7 @@
         <v>313-736-6400</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>1795</v>
       </c>
@@ -21568,7 +21569,7 @@
         <v>190-442-2665</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>1797</v>
       </c>
@@ -21584,7 +21585,7 @@
         <v>966-795-9060</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>1799</v>
       </c>
@@ -21600,7 +21601,7 @@
         <v>951-222-3081</v>
       </c>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>1801</v>
       </c>
@@ -21616,7 +21617,7 @@
         <v>643-287-5792</v>
       </c>
     </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>1803</v>
       </c>
@@ -21632,7 +21633,7 @@
         <v>350-187-1180</v>
       </c>
     </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>1805</v>
       </c>
@@ -21648,7 +21649,7 @@
         <v>664-896-6755</v>
       </c>
     </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>1807</v>
       </c>
@@ -21664,7 +21665,7 @@
         <v>586-261-1230</v>
       </c>
     </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>1809</v>
       </c>
@@ -21680,7 +21681,7 @@
         <v>960-789-0636</v>
       </c>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>1811</v>
       </c>
@@ -21696,7 +21697,7 @@
         <v>208-734-9559</v>
       </c>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>1813</v>
       </c>
@@ -21712,7 +21713,7 @@
         <v>524-336-6992</v>
       </c>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>1815</v>
       </c>
@@ -21728,7 +21729,7 @@
         <v>646-814-0895</v>
       </c>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>1817</v>
       </c>
@@ -21744,7 +21745,7 @@
         <v>797-121-1807</v>
       </c>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>1819</v>
       </c>
@@ -21760,7 +21761,7 @@
         <v>787-379-2843</v>
       </c>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>1821</v>
       </c>
@@ -21776,7 +21777,7 @@
         <v>643-714-0462</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>1823</v>
       </c>
@@ -21792,7 +21793,7 @@
         <v>785-811-2207</v>
       </c>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>1825</v>
       </c>
@@ -21808,7 +21809,7 @@
         <v>815-623-4026</v>
       </c>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>1827</v>
       </c>
@@ -21824,7 +21825,7 @@
         <v>232-445-3157</v>
       </c>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>1829</v>
       </c>
@@ -21840,7 +21841,7 @@
         <v>547-548-6316</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>1831</v>
       </c>
@@ -21856,7 +21857,7 @@
         <v>942-241-2085</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>1833</v>
       </c>
@@ -21872,7 +21873,7 @@
         <v>190-966-2937</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>1835</v>
       </c>
@@ -21888,7 +21889,7 @@
         <v>363-950-4781</v>
       </c>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>1837</v>
       </c>
@@ -21904,7 +21905,7 @@
         <v>333-376-9279</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>1839</v>
       </c>
@@ -21920,7 +21921,7 @@
         <v>128-537-6856</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>1841</v>
       </c>
@@ -21936,7 +21937,7 @@
         <v>642-525-1261</v>
       </c>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>1843</v>
       </c>
@@ -21952,7 +21953,7 @@
         <v>766-349-2552</v>
       </c>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>1845</v>
       </c>
@@ -21968,7 +21969,7 @@
         <v>741-705-2771</v>
       </c>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>1847</v>
       </c>
@@ -21984,7 +21985,7 @@
         <v>854-899-2230</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>1849</v>
       </c>
@@ -22000,7 +22001,7 @@
         <v>860-851-7890</v>
       </c>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>1851</v>
       </c>
@@ -22016,7 +22017,7 @@
         <v>620-273-1167</v>
       </c>
     </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>1853</v>
       </c>
@@ -22032,7 +22033,7 @@
         <v>324-721-7046</v>
       </c>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>1855</v>
       </c>
@@ -22048,7 +22049,7 @@
         <v>263-930-0339</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>1857</v>
       </c>
@@ -22064,7 +22065,7 @@
         <v>680-500-0976</v>
       </c>
     </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>1859</v>
       </c>
@@ -22080,7 +22081,7 @@
         <v>303-328-2444</v>
       </c>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>1861</v>
       </c>
@@ -22096,7 +22097,7 @@
         <v>831-228-5011</v>
       </c>
     </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>1863</v>
       </c>
@@ -22112,7 +22113,7 @@
         <v>507-343-2221</v>
       </c>
     </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>1865</v>
       </c>
@@ -22128,7 +22129,7 @@
         <v>895-151-8066</v>
       </c>
     </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>1867</v>
       </c>
@@ -22144,7 +22145,7 @@
         <v>677-391-8866</v>
       </c>
     </row>
-    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>1869</v>
       </c>
@@ -22160,7 +22161,7 @@
         <v>595-836-6231</v>
       </c>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>1871</v>
       </c>
@@ -22176,7 +22177,7 @@
         <v>161-998-2814</v>
       </c>
     </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>1873</v>
       </c>
@@ -22192,7 +22193,7 @@
         <v>704-225-2444</v>
       </c>
     </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>1875</v>
       </c>
@@ -22208,7 +22209,7 @@
         <v>518-490-0754</v>
       </c>
     </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>1877</v>
       </c>
@@ -22224,7 +22225,7 @@
         <v>738-215-0049</v>
       </c>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>1879</v>
       </c>
@@ -22240,7 +22241,7 @@
         <v>487-319-2209</v>
       </c>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>1881</v>
       </c>
@@ -22256,7 +22257,7 @@
         <v>257-812-5638</v>
       </c>
     </row>
-    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>1883</v>
       </c>
@@ -22272,7 +22273,7 @@
         <v>732-234-7274</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>1885</v>
       </c>
@@ -22288,7 +22289,7 @@
         <v>914-709-6135</v>
       </c>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>1887</v>
       </c>
@@ -22304,7 +22305,7 @@
         <v>418-278-4182</v>
       </c>
     </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>1889</v>
       </c>
@@ -22320,7 +22321,7 @@
         <v>590-379-1367</v>
       </c>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>1891</v>
       </c>
@@ -22336,7 +22337,7 @@
         <v>132-395-1982</v>
       </c>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>1893</v>
       </c>
@@ -22352,7 +22353,7 @@
         <v>269-601-2617</v>
       </c>
     </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>1895</v>
       </c>
@@ -22368,7 +22369,7 @@
         <v>900-103-6577</v>
       </c>
     </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>1897</v>
       </c>
@@ -22384,7 +22385,7 @@
         <v>954-738-8594</v>
       </c>
     </row>
-    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>1899</v>
       </c>
@@ -22400,7 +22401,7 @@
         <v>325-804-9945</v>
       </c>
     </row>
-    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>1901</v>
       </c>
@@ -22416,7 +22417,7 @@
         <v>917-411-6935</v>
       </c>
     </row>
-    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>1903</v>
       </c>
@@ -22432,7 +22433,7 @@
         <v>235-914-9898</v>
       </c>
     </row>
-    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>1905</v>
       </c>
@@ -22448,7 +22449,7 @@
         <v>942-688-1167</v>
       </c>
     </row>
-    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>1907</v>
       </c>
@@ -22464,7 +22465,7 @@
         <v>659-992-7355</v>
       </c>
     </row>
-    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>1909</v>
       </c>
@@ -22480,7 +22481,7 @@
         <v>643-263-4514</v>
       </c>
     </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>1911</v>
       </c>
@@ -22496,7 +22497,7 @@
         <v>797-294-2234</v>
       </c>
     </row>
-    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>1913</v>
       </c>
@@ -22512,7 +22513,7 @@
         <v>532-237-6879</v>
       </c>
     </row>
-    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>1915</v>
       </c>
@@ -22528,7 +22529,7 @@
         <v>291-293-7925</v>
       </c>
     </row>
-    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>1917</v>
       </c>
@@ -22544,7 +22545,7 @@
         <v>558-851-9849</v>
       </c>
     </row>
-    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>1919</v>
       </c>
@@ -22560,7 +22561,7 @@
         <v>635-833-2098</v>
       </c>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>1921</v>
       </c>
@@ -22576,7 +22577,7 @@
         <v>265-912-9620</v>
       </c>
     </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>1923</v>
       </c>
@@ -22592,7 +22593,7 @@
         <v>519-679-1953</v>
       </c>
     </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>1925</v>
       </c>
@@ -22608,7 +22609,7 @@
         <v>680-930-4592</v>
       </c>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>1927</v>
       </c>
@@ -22624,7 +22625,7 @@
         <v>436-885-3142</v>
       </c>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>1929</v>
       </c>
@@ -22640,7 +22641,7 @@
         <v>885-102-1770</v>
       </c>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>1931</v>
       </c>
@@ -22656,7 +22657,7 @@
         <v>218-114-1174</v>
       </c>
     </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
         <v>1933</v>
       </c>
@@ -22672,7 +22673,7 @@
         <v>626-722-6636</v>
       </c>
     </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>1935</v>
       </c>
@@ -22688,7 +22689,7 @@
         <v>925-470-4730</v>
       </c>
     </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>1937</v>
       </c>
@@ -22704,7 +22705,7 @@
         <v>847-981-7054</v>
       </c>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
         <v>1939</v>
       </c>
@@ -22720,7 +22721,7 @@
         <v>755-406-5850</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>1941</v>
       </c>
@@ -22736,7 +22737,7 @@
         <v>352-521-8921</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
         <v>1943</v>
       </c>
@@ -22752,7 +22753,7 @@
         <v>348-760-5750</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
         <v>1945</v>
       </c>
@@ -22768,7 +22769,7 @@
         <v>377-701-3865</v>
       </c>
     </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
         <v>1947</v>
       </c>
@@ -22784,7 +22785,7 @@
         <v>632-381-1926</v>
       </c>
     </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
         <v>1949</v>
       </c>
@@ -22800,7 +22801,7 @@
         <v>305-943-0582</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
         <v>1951</v>
       </c>
@@ -22816,7 +22817,7 @@
         <v>948-439-4263</v>
       </c>
     </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
         <v>1953</v>
       </c>
@@ -22832,7 +22833,7 @@
         <v>676-644-8850</v>
       </c>
     </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
         <v>1955</v>
       </c>
@@ -22848,7 +22849,7 @@
         <v>275-999-8871</v>
       </c>
     </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
         <v>1957</v>
       </c>
@@ -22864,7 +22865,7 @@
         <v>565-621-4848</v>
       </c>
     </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
         <v>1959</v>
       </c>
@@ -22880,7 +22881,7 @@
         <v>371-442-9523</v>
       </c>
     </row>
-    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
         <v>1961</v>
       </c>
@@ -22896,7 +22897,7 @@
         <v>829-210-8743</v>
       </c>
     </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
         <v>1963</v>
       </c>
@@ -22912,7 +22913,7 @@
         <v>438-592-8281</v>
       </c>
     </row>
-    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
         <v>1965</v>
       </c>
@@ -22928,7 +22929,7 @@
         <v>610-431-8422</v>
       </c>
     </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
         <v>1967</v>
       </c>
@@ -22944,7 +22945,7 @@
         <v>178-989-8074</v>
       </c>
     </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
         <v>1969</v>
       </c>
@@ -22960,7 +22961,7 @@
         <v>608-591-6671</v>
       </c>
     </row>
-    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
         <v>1971</v>
       </c>
@@ -22976,7 +22977,7 @@
         <v>293-971-3101</v>
       </c>
     </row>
-    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
         <v>1973</v>
       </c>
@@ -22992,7 +22993,7 @@
         <v>413-564-4584</v>
       </c>
     </row>
-    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
         <v>1975</v>
       </c>
@@ -23008,7 +23009,7 @@
         <v>373-128-1324</v>
       </c>
     </row>
-    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
         <v>1977</v>
       </c>
@@ -23024,7 +23025,7 @@
         <v>891-958-9654</v>
       </c>
     </row>
-    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
         <v>1979</v>
       </c>
@@ -23040,7 +23041,7 @@
         <v>570-788-0964</v>
       </c>
     </row>
-    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
         <v>1981</v>
       </c>
@@ -23056,7 +23057,7 @@
         <v>154-408-7633</v>
       </c>
     </row>
-    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
         <v>1983</v>
       </c>
@@ -23072,7 +23073,7 @@
         <v>444-888-2853</v>
       </c>
     </row>
-    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
         <v>1985</v>
       </c>
@@ -23088,7 +23089,7 @@
         <v>801-219-6768</v>
       </c>
     </row>
-    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
         <v>1987</v>
       </c>
@@ -23104,7 +23105,7 @@
         <v>952-857-1676</v>
       </c>
     </row>
-    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
         <v>1989</v>
       </c>
@@ -23120,7 +23121,7 @@
         <v>953-173-8042</v>
       </c>
     </row>
-    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
         <v>1991</v>
       </c>
@@ -23136,7 +23137,7 @@
         <v>971-556-3382</v>
       </c>
     </row>
-    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
         <v>1993</v>
       </c>
@@ -23152,7 +23153,7 @@
         <v>984-199-9251</v>
       </c>
     </row>
-    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
         <v>1995</v>
       </c>
@@ -23168,7 +23169,7 @@
         <v>236-350-9893</v>
       </c>
     </row>
-    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
         <v>1997</v>
       </c>
@@ -23184,7 +23185,7 @@
         <v>552-480-3171</v>
       </c>
     </row>
-    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
         <v>1999</v>
       </c>
@@ -23200,7 +23201,7 @@
         <v>128-217-9641</v>
       </c>
     </row>
-    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
         <v>2001</v>
       </c>
@@ -23216,7 +23217,7 @@
         <v>783-771-5104</v>
       </c>
     </row>
-    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
         <v>2003</v>
       </c>
@@ -23232,7 +23233,7 @@
         <v>166-573-1943</v>
       </c>
     </row>
-    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
         <v>2005</v>
       </c>
@@ -23248,7 +23249,7 @@
         <v>600-858-3478</v>
       </c>
     </row>
-    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
         <v>2007</v>
       </c>
@@ -23264,7 +23265,7 @@
         <v>104-824-8208</v>
       </c>
     </row>
-    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
         <v>2009</v>
       </c>
@@ -23280,7 +23281,7 @@
         <v>220-242-3342</v>
       </c>
     </row>
-    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
         <v>2011</v>
       </c>
@@ -23296,7 +23297,7 @@
         <v>287-917-8136</v>
       </c>
     </row>
-    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
         <v>2013</v>
       </c>
@@ -23312,7 +23313,7 @@
         <v>629-562-7800</v>
       </c>
     </row>
-    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
         <v>2015</v>
       </c>
@@ -23328,7 +23329,7 @@
         <v>265-420-0668</v>
       </c>
     </row>
-    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
         <v>2017</v>
       </c>
@@ -23344,7 +23345,7 @@
         <v>789-781-5496</v>
       </c>
     </row>
-    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
         <v>2019</v>
       </c>
@@ -23360,7 +23361,7 @@
         <v>218-245-9810</v>
       </c>
     </row>
-    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
         <v>2021</v>
       </c>
@@ -23376,7 +23377,7 @@
         <v>281-182-4219</v>
       </c>
     </row>
-    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
         <v>2023</v>
       </c>
@@ -23392,7 +23393,7 @@
         <v>226-569-9781</v>
       </c>
     </row>
-    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
         <v>2025</v>
       </c>
@@ -23408,7 +23409,7 @@
         <v>373-527-5434</v>
       </c>
     </row>
-    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
         <v>2027</v>
       </c>
@@ -23424,7 +23425,7 @@
         <v>959-308-5396</v>
       </c>
     </row>
-    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
         <v>2029</v>
       </c>
@@ -23440,7 +23441,7 @@
         <v>490-679-7066</v>
       </c>
     </row>
-    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
         <v>2031</v>
       </c>
@@ -23456,7 +23457,7 @@
         <v>163-563-1274</v>
       </c>
     </row>
-    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
         <v>2033</v>
       </c>
@@ -23472,7 +23473,7 @@
         <v>445-883-7088</v>
       </c>
     </row>
-    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
         <v>2035</v>
       </c>
@@ -23488,7 +23489,7 @@
         <v>228-983-4557</v>
       </c>
     </row>
-    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
         <v>2037</v>
       </c>
@@ -23504,7 +23505,7 @@
         <v>861-891-1076</v>
       </c>
     </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
         <v>2039</v>
       </c>
@@ -23520,7 +23521,7 @@
         <v>125-511-9106</v>
       </c>
     </row>
-    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
         <v>2041</v>
       </c>
@@ -23536,7 +23537,7 @@
         <v>545-961-9889</v>
       </c>
     </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
         <v>2043</v>
       </c>
@@ -23552,7 +23553,7 @@
         <v>701-131-7356</v>
       </c>
     </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
         <v>2045</v>
       </c>
@@ -23568,7 +23569,7 @@
         <v>673-979-2708</v>
       </c>
     </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
         <v>2047</v>
       </c>
@@ -23584,7 +23585,7 @@
         <v>997-964-5425</v>
       </c>
     </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
         <v>2049</v>
       </c>
@@ -23600,7 +23601,7 @@
         <v>341-297-4101</v>
       </c>
     </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
         <v>2051</v>
       </c>
@@ -23616,7 +23617,7 @@
         <v>530-414-9369</v>
       </c>
     </row>
-    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
         <v>2053</v>
       </c>
@@ -23632,7 +23633,7 @@
         <v>223-862-1162</v>
       </c>
     </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
         <v>2055</v>
       </c>
@@ -23648,7 +23649,7 @@
         <v>367-570-7098</v>
       </c>
     </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
         <v>2057</v>
       </c>
@@ -23664,7 +23665,7 @@
         <v>760-419-9264</v>
       </c>
     </row>
-    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
         <v>2059</v>
       </c>
@@ -23680,7 +23681,7 @@
         <v>164-327-5263</v>
       </c>
     </row>
-    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
         <v>2061</v>
       </c>
@@ -23696,7 +23697,7 @@
         <v>536-487-8293</v>
       </c>
     </row>
-    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
         <v>2063</v>
       </c>
@@ -23712,7 +23713,7 @@
         <v>796-560-6318</v>
       </c>
     </row>
-    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
         <v>2065</v>
       </c>
@@ -23728,7 +23729,7 @@
         <v>734-215-6781</v>
       </c>
     </row>
-    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
         <v>2067</v>
       </c>
@@ -23744,7 +23745,7 @@
         <v>685-640-4456</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
         <v>2069</v>
       </c>
@@ -23760,7 +23761,7 @@
         <v>977-998-8225</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
         <v>2071</v>
       </c>
@@ -23782,33 +23783,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2075</v>
       </c>
       <c r="B2">
         <f ca="1">MONTH(TODAY()+100)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B2)</f>
         <v>=MONTH(TODAY()+100)</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2074</v>
       </c>
@@ -23816,23 +23817,23 @@
         <v>25404</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>2073</v>
       </c>
       <c r="B6" s="13">
         <f ca="1">TODAY()-"7/20/1969"</f>
-        <v>18394</v>
+        <v>18424</v>
       </c>
       <c r="C6" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B6)</f>
         <v>=TODAY()-"7/20/1969"</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <f ca="1">_xlfn.DAYS(TODAY(), B4)</f>
-        <v>18394</v>
+        <v>18424</v>
       </c>
       <c r="C7" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B7)</f>
